--- a/assets/data-resources/landscape-diversity-data.xlsx
+++ b/assets/data-resources/landscape-diversity-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="16155" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1479,35 +1479,35 @@
     <t>Distance in miles to metro stop, 2016-17</t>
   </si>
   <si>
-    <t>Change in race and ethnicity plurality group</t>
-  </si>
-  <si>
-    <t>Change in economic plurality group</t>
-  </si>
-  <si>
-    <t>Percentage point change in at-risk students</t>
-  </si>
-  <si>
-    <t>Percentage point change, African American</t>
-  </si>
-  <si>
-    <t>Percentage point change, Latino</t>
-  </si>
-  <si>
-    <t>Percentage point change, white</t>
-  </si>
-  <si>
-    <t>Percentage point difference in racial and ethnic diversity score</t>
-  </si>
-  <si>
-    <t>Percentage point difference in economic diversity score</t>
+    <t>Change in race and ethnicity plurality group, 2014-15 to 2016-17</t>
+  </si>
+  <si>
+    <t>Change in economic plurality group, 2014-15 to 2016-17</t>
+  </si>
+  <si>
+    <t>Percentage point change in at-risk students, 2014-15 to 2016-17</t>
+  </si>
+  <si>
+    <t>Percentage point change, African American (2014-15 to 2016-17)</t>
+  </si>
+  <si>
+    <t>Percentage point change, Latino (2014-15 to 2016-17)</t>
+  </si>
+  <si>
+    <t>Percentage point change, white (2014-15 to 2016-17)</t>
+  </si>
+  <si>
+    <t>Percentage point difference in racial and ethnic diversity score over time (2014-15 to 2016-17)</t>
+  </si>
+  <si>
+    <t>Percentage point difference in economic diversity score over time (2014-15 to 2016-17)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1516,6 +1516,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1535,10 +1539,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1553,9 +1558,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1847,10 +1854,10 @@
   <dimension ref="A1:BA225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ31" sqref="AQ31"/>
+      <selection pane="bottomRight" activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1886,10 +1893,10 @@
     <col min="45" max="45" width="9.140625" customWidth="1"/>
     <col min="46" max="46" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="14" customWidth="1"/>
+    <col min="48" max="53" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>432</v>
       </c>
@@ -2069,19 +2076,19 @@
       <c r="F2" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
         <v>3.200000524520874E-2</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="8">
         <v>0.49438202381134033</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>0.45043104887008667</v>
       </c>
       <c r="L2" s="1">
@@ -2224,19 +2231,19 @@
       <c r="F3" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="8">
         <v>3.200000524520874E-2</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="8">
         <v>0.4960629940032959</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="8">
         <v>0.49145299196243286</v>
       </c>
       <c r="L3" s="1">
@@ -2377,19 +2384,19 @@
       <c r="F4" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <v>4.0000081062316895E-3</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="8">
         <v>0.18320608139038086</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="8">
         <v>0.20717132091522217</v>
       </c>
       <c r="L4" s="1">
@@ -2530,19 +2537,19 @@
       <c r="F5" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>0.12000000476837158</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="8">
         <v>0.12300002574920654</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="8">
         <v>0.26376813650131226</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>0.31142854690551758</v>
       </c>
       <c r="L5" s="1">
@@ -2691,19 +2698,19 @@
       <c r="F6" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <v>1.0999977588653564E-2</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="8">
         <v>0.11346447467803955</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="8">
         <v>0.16703784465789795</v>
       </c>
       <c r="L6" s="1">
@@ -2844,19 +2851,19 @@
       <c r="F7" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <v>0.31000000238418579</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>0.4869999885559082</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="8">
         <v>0.35582822561264038</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="8">
         <v>0.33125001192092896</v>
       </c>
       <c r="L7" s="1">
@@ -3003,19 +3010,19 @@
       <c r="F8" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <v>0.52999997138977051</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
         <v>0.5</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="8">
         <v>8.3333313465118408E-2</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="1">
         <v>0</v>
       </c>
@@ -3150,19 +3157,19 @@
       <c r="F9" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
         <v>4.5000016689300537E-2</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8">
         <v>0.49689441919326782</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="8">
         <v>0.47014927864074707</v>
       </c>
       <c r="L9" s="1">
@@ -3305,19 +3312,19 @@
       <c r="F10" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="8">
         <v>2.3999989032745361E-2</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="8">
         <v>0.27528089284896851</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="8">
         <v>0.30769228935241699</v>
       </c>
       <c r="L10" s="1">
@@ -3456,19 +3463,19 @@
       <c r="F11" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <v>0.12999999523162842</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="8">
         <v>0.15700000524520874</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="8">
         <v>0.47674417495727539</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="8">
         <v>0.48148149251937866</v>
       </c>
       <c r="L11" s="1">
@@ -3615,19 +3622,19 @@
       <c r="F12" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="8">
         <v>0.14701986312866211</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="8">
         <v>0.21827954053878784</v>
       </c>
       <c r="L12" s="1">
@@ -3770,19 +3777,19 @@
       <c r="F13" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="8">
         <v>0.25999999046325684</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="8">
         <v>0.30800002813339233</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="8">
         <v>0.35629922151565552</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="8">
         <v>0.34528303146362305</v>
       </c>
       <c r="L13" s="1">
@@ -3931,19 +3938,19 @@
       <c r="F14" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="8">
         <v>0.49000000953674316</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="8">
         <v>0.51199996471405029</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="8">
         <v>0.47176080942153931</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="8">
         <v>0.46533125638961792</v>
       </c>
       <c r="L14" s="1">
@@ -4092,19 +4099,19 @@
       <c r="F15" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="8">
         <v>0.58000004291534424</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="8">
         <v>0.61000001430511475</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="8">
         <v>8.7114334106445313E-2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="8">
         <v>7.872694730758667E-2</v>
       </c>
       <c r="L15" s="1">
@@ -4251,19 +4258,19 @@
       <c r="F16" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="8">
         <v>1.8999993801116943E-2</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="8">
         <v>0.4452054500579834</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="8">
         <v>0.43534481525421143</v>
       </c>
       <c r="L16" s="1">
@@ -4408,19 +4415,19 @@
       <c r="F17" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="8">
         <v>0.18999999761581421</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="8">
         <v>0.24699997901916504</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="8">
         <v>0.25167036056518555</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="8">
         <v>0.21205818653106689</v>
       </c>
       <c r="L17" s="1">
@@ -4563,19 +4570,19 @@
       <c r="F18" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="8">
         <v>2.2000014781951904E-2</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="8">
         <v>0.23177081346511841</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="8">
         <v>0.25245100259780884</v>
       </c>
       <c r="L18" s="1">
@@ -4720,15 +4727,15 @@
       <c r="F19" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
         <v>0.58000004291534424</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="1">
         <v>0</v>
       </c>
@@ -4839,19 +4846,19 @@
       <c r="F20" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="8">
         <v>0.36000001430511475</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="8">
         <v>0.33899998664855957</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="8">
         <v>5.9405922889709473E-2</v>
       </c>
       <c r="L20" s="1">
@@ -5000,19 +5007,19 @@
       <c r="F21" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="8">
         <v>0.60000002384185791</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="8">
         <v>0.47899997234344482</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="8">
         <v>0.34191179275512695</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="8">
         <v>0.32317072153091431</v>
       </c>
       <c r="L21" s="1">
@@ -5159,19 +5166,19 @@
       <c r="F22" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="8">
         <v>0.27999997138977051</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="8">
         <v>0.24900001287460327</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="8">
         <v>0.47261345386505127</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="8">
         <v>0.46357613801956177</v>
       </c>
       <c r="L22" s="1">
@@ -5234,10 +5241,10 @@
       <c r="AE22" t="s">
         <v>288</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="2">
         <v>38.960535729999897</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="2">
         <v>-77.030688850000004</v>
       </c>
       <c r="AH22" s="1">
@@ -5320,17 +5327,17 @@
       <c r="F23" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="8">
         <v>0.12999999523162842</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="8">
         <v>0.48000001907348633</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="1"/>
       <c r="M23" s="2">
         <v>0.87000000476837158</v>
@@ -5371,8 +5378,8 @@
       <c r="AE23" t="s">
         <v>233</v>
       </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -5413,15 +5420,15 @@
       <c r="F24" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <v>9.1000020503997803E-2</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
         <v>0.4960629940032959</v>
       </c>
       <c r="L24" s="1">
@@ -5470,10 +5477,10 @@
       <c r="AE24" t="s">
         <v>373</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" s="2">
         <v>38.938476000000001</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AG24" s="2">
         <v>-76.991058999999893</v>
       </c>
       <c r="AH24" s="1">
@@ -5540,19 +5547,19 @@
       <c r="F25" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="8">
         <v>5.5000007152557373E-2</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="8">
         <v>0.31728047132492065</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="8">
         <v>0.30744338035583496</v>
       </c>
       <c r="L25" s="1">
@@ -5613,10 +5620,10 @@
       <c r="AE25" t="s">
         <v>381</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25" s="2">
         <v>38.9025988799999</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25" s="2">
         <v>-76.970667059999897</v>
       </c>
       <c r="AH25" s="1">
@@ -5697,19 +5704,19 @@
       <c r="F26" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="8">
         <v>0.22000002861022949</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="8">
         <v>0.23299998044967651</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="8">
         <v>0.49462366104125977</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="8">
         <v>0.43974632024765015</v>
       </c>
       <c r="L26" s="1">
@@ -5772,10 +5779,10 @@
       <c r="AE26" t="s">
         <v>342</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26" s="2">
         <v>38.934414099999898</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AG26" s="2">
         <v>-77.021185669999895</v>
       </c>
       <c r="AH26" s="1">
@@ -5858,15 +5865,15 @@
       <c r="F27" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
         <v>0.20999997854232788</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8">
         <v>0.45641022920608521</v>
       </c>
       <c r="L27" s="1">
@@ -5915,10 +5922,10 @@
       <c r="AE27" t="s">
         <v>291</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AF27" s="2">
         <v>38.942012470000002</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AG27" s="2">
         <v>-76.984995639999894</v>
       </c>
       <c r="AH27" s="1">
@@ -5985,19 +5992,19 @@
       <c r="F28" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="8">
         <v>0.10000002384185791</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="8">
         <v>0.11699998378753662</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="8">
         <v>0.47474747896194458</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="8">
         <v>0.42413794994354248</v>
       </c>
       <c r="L28" s="1">
@@ -6058,10 +6065,10 @@
       <c r="AE28" t="s">
         <v>292</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AF28" s="2">
         <v>38.933502660000002</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AG28" s="2">
         <v>-76.978456370000004</v>
       </c>
       <c r="AH28" s="1">
@@ -6142,19 +6149,19 @@
       <c r="F29" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
         <v>2.499997615814209E-2</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="8">
         <v>0.32222223281860352</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="8">
         <v>0.31999999284744263</v>
       </c>
       <c r="L29" s="1">
@@ -6215,10 +6222,10 @@
       <c r="AE29" t="s">
         <v>293</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AF29" s="2">
         <v>38.90056577</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AG29" s="2">
         <v>-76.9244591799999</v>
       </c>
       <c r="AH29" s="1">
@@ -6299,19 +6306,19 @@
       <c r="F30" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="8">
         <v>1.3999998569488525E-2</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="8">
         <v>0.21305841207504272</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="8">
         <v>0.26315790414810181</v>
       </c>
       <c r="L30" s="1">
@@ -6370,10 +6377,10 @@
       <c r="AE30" t="s">
         <v>305</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AF30" s="2">
         <v>38.883598829999897</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AG30" s="2">
         <v>-76.926115499999895</v>
       </c>
       <c r="AH30" s="1">
@@ -6452,19 +6459,19 @@
       <c r="F31" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="8">
         <v>0.39999997615814209</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="8">
         <v>0.44999998807907104</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="8">
         <v>0.44984805583953857</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="8">
         <v>0.42942941188812256</v>
       </c>
       <c r="L31" s="1">
@@ -6523,10 +6530,10 @@
       <c r="AE31" t="s">
         <v>268</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AF31" s="2">
         <v>38.962159999999997</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AG31" s="2">
         <v>-77.012870000000007</v>
       </c>
       <c r="AH31" s="1">
@@ -6607,19 +6614,19 @@
       <c r="F32" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="8">
         <v>0.61000001430511475</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="8">
         <v>0.52600002288818359</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="8">
         <v>0.22360247373580933</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="8">
         <v>0.2830769419670105</v>
       </c>
       <c r="L32" s="1">
@@ -6680,10 +6687,10 @@
       <c r="AE32" t="s">
         <v>268</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AF32" s="2">
         <v>38.962159999999997</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AG32" s="2">
         <v>-77.012870000000007</v>
       </c>
       <c r="AH32" s="1">
@@ -6766,19 +6773,19 @@
       <c r="F33" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="8">
         <v>0.56999999284744263</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="8">
         <v>0.51399999856948853</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="8">
         <v>0.34687501192092896</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="8">
         <v>0.29538458585739136</v>
       </c>
       <c r="L33" s="1">
@@ -6839,10 +6846,10 @@
       <c r="AE33" t="s">
         <v>268</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AF33" s="2">
         <v>38.962159999999997</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AG33" s="2">
         <v>-77.012870000000007</v>
       </c>
       <c r="AH33" s="1">
@@ -6925,19 +6932,19 @@
       <c r="F34" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="8">
         <v>0.45999997854232788</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="8">
         <v>0.39899998903274536</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="8">
         <v>8.0645143985748291E-2</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="8">
         <v>0.13573408126831055</v>
       </c>
       <c r="L34" s="1">
@@ -6998,10 +7005,10 @@
       <c r="AE34" t="s">
         <v>375</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AF34" s="2">
         <v>38.898530309999899</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AG34" s="2">
         <v>-77.002566470000005</v>
       </c>
       <c r="AH34" s="1">
@@ -7084,19 +7091,19 @@
       <c r="F35" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="8">
         <v>0.47000002861022949</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="8">
         <v>0.44300001859664917</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="8">
         <v>0.26632523536682129</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="8">
         <v>0.30402010679244995</v>
       </c>
       <c r="L35" s="1">
@@ -7159,10 +7166,10 @@
       <c r="AE35" t="s">
         <v>398</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AF35" s="2">
         <v>38.922172860000003</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AG35" s="2">
         <v>-77.028470690000006</v>
       </c>
       <c r="AH35" s="1">
@@ -7245,19 +7252,19 @@
       <c r="F36" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
         <v>1.3000011444091797E-2</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="8">
         <v>0.27094972133636475</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="8">
         <v>0.2883116602897644</v>
       </c>
       <c r="L36" s="1">
@@ -7316,10 +7323,10 @@
       <c r="AE36" t="s">
         <v>271</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AF36" s="2">
         <v>38.864220000000003</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AG36" s="2">
         <v>-76.999189999999999</v>
       </c>
       <c r="AH36" s="1">
@@ -7400,19 +7407,19 @@
       <c r="F37" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="8">
         <v>0.50999999046325684</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="8">
         <v>0.49599999189376831</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="8">
         <v>0.32258063554763794</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="8">
         <v>0.38768118619918823</v>
       </c>
       <c r="L37" s="1">
@@ -7473,10 +7480,10 @@
       <c r="AE37" t="s">
         <v>408</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AF37" s="2">
         <v>38.963189999999997</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AG37" s="2">
         <v>-77.028329999999997</v>
       </c>
       <c r="AH37" s="1">
@@ -7559,19 +7566,19 @@
       <c r="F38" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="8">
         <v>7.0999979972839355E-2</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="8">
         <v>0.46861922740936279</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="8">
         <v>0.49579828977584839</v>
       </c>
       <c r="L38" s="1">
@@ -7628,10 +7635,10 @@
       <c r="AE38" t="s">
         <v>409</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="2">
         <v>38.889530000000001</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AG38" s="2">
         <v>-76.9833</v>
       </c>
       <c r="AH38" s="1">
@@ -7710,19 +7717,19 @@
       <c r="F39" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
         <v>2.7999997138977051E-2</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="8">
         <v>0.33073931932449341</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="8">
         <v>0.46245056390762329</v>
       </c>
       <c r="L39" s="1">
@@ -7783,10 +7790,10 @@
       <c r="AE39" t="s">
         <v>410</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AF39" s="2">
         <v>38.841589999999997</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AG39" s="2">
         <v>-77.004440000000002</v>
       </c>
       <c r="AH39" s="1">
@@ -7869,19 +7876,19 @@
       <c r="F40" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="8">
         <v>0.47000002861022949</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="8">
         <v>0.51399999856948853</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="8">
         <v>0.37022900581359863</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="8">
         <v>0.35019457340240479</v>
       </c>
       <c r="L40" s="1">
@@ -7940,10 +7947,10 @@
       <c r="AE40" t="s">
         <v>411</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AF40" s="2">
         <v>38.943869999999997</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AG40" s="2">
         <v>-77.020910000000001</v>
       </c>
       <c r="AH40" s="1">
@@ -8024,19 +8031,19 @@
       <c r="F41" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="8">
         <v>0.32999998331069946</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="8">
         <v>0.42699998617172241</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="8">
         <v>0.46887969970703125</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="8">
         <v>0.49145299196243286</v>
       </c>
       <c r="L41" s="1">
@@ -8097,10 +8104,10 @@
       <c r="AE41" t="s">
         <v>412</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AF41" s="2">
         <v>38.907440000000001</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AG41" s="2">
         <v>-77.022670000000005</v>
       </c>
       <c r="AH41" s="1">
@@ -8183,19 +8190,19 @@
       <c r="F42" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="8">
         <v>0.1029999852180481</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="8">
         <v>0.4406779408454895</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="8">
         <v>0.3586956262588501</v>
       </c>
       <c r="L42" s="1">
@@ -8254,10 +8261,10 @@
       <c r="AE42" t="s">
         <v>413</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AF42" s="2">
         <v>38.905299999999997</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AG42" s="2">
         <v>-76.991200000000006</v>
       </c>
       <c r="AH42" s="1">
@@ -8338,19 +8345,19 @@
       <c r="F43" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="8">
         <v>0.18999999761581421</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="8">
         <v>0.12699997425079346</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="8">
         <v>0.37150835990905762</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="8">
         <v>0.36144578456878662</v>
       </c>
       <c r="L43" s="1">
@@ -8409,10 +8416,10 @@
       <c r="AE43" t="s">
         <v>259</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AF43" s="2">
         <v>38.880690000000001</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="AG43" s="2">
         <v>-76.990639999999999</v>
       </c>
       <c r="AH43" s="1">
@@ -8493,19 +8500,19 @@
       <c r="F44" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="8">
         <v>0.27999997138977051</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="8">
         <v>0.23199999332427979</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="8">
         <v>0.48640483617782593</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="8">
         <v>0.48692810535430908</v>
       </c>
       <c r="L44" s="1">
@@ -8564,10 +8571,10 @@
       <c r="AE44" t="s">
         <v>248</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AF44" s="2">
         <v>38.929609999999997</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AG44" s="2">
         <v>-77.025880000000001</v>
       </c>
       <c r="AH44" s="1">
@@ -8648,19 +8655,19 @@
       <c r="F45" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="8">
         <v>8.9999973773956299E-2</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="8">
         <v>6.6999971866607666E-2</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="8">
         <v>0.35955053567886353</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="8">
         <v>0.37325906753540039</v>
       </c>
       <c r="L45" s="1">
@@ -8717,10 +8724,10 @@
       <c r="AE45" t="s">
         <v>241</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AF45" s="2">
         <v>38.901440000000001</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AG45" s="2">
         <v>-76.949070000000006</v>
       </c>
       <c r="AH45" s="1">
@@ -8801,19 +8808,19 @@
       <c r="F46" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="8">
         <v>0.32673269510269165</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="8">
         <v>0.2841726541519165</v>
       </c>
       <c r="L46" s="1">
@@ -8872,10 +8879,10 @@
       <c r="AE46" t="s">
         <v>241</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AF46" s="2">
         <v>38.901440000000001</v>
       </c>
-      <c r="AG46" s="1">
+      <c r="AG46" s="2">
         <v>-76.949070000000006</v>
       </c>
       <c r="AH46" s="1">
@@ -8956,19 +8963,19 @@
       <c r="F47" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="8">
         <v>4.1999995708465576E-2</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="8">
         <v>0.49202734231948853</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="8">
         <v>0.45210725069046021</v>
       </c>
       <c r="L47" s="1">
@@ -9029,10 +9036,10 @@
       <c r="AE47" t="s">
         <v>286</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AF47" s="2">
         <v>38.923639999999999</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AG47" s="2">
         <v>-76.995850000000004</v>
       </c>
       <c r="AH47" s="1">
@@ -9115,19 +9122,19 @@
       <c r="F48" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="8">
         <v>0.3399999737739563</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="8">
         <v>0.39899998903274536</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="8">
         <v>0.44480520486831665</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="8">
         <v>0.44859814643859863</v>
       </c>
       <c r="L48" s="1">
@@ -9190,10 +9197,10 @@
       <c r="AE48" t="s">
         <v>294</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AF48" s="2">
         <v>38.915145289999899</v>
       </c>
-      <c r="AG48" s="1">
+      <c r="AG48" s="2">
         <v>-77.022707179999898</v>
       </c>
       <c r="AH48" s="1">
@@ -9276,19 +9283,19 @@
       <c r="F49" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="8">
         <v>0.35000002384185791</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="8">
         <v>0.33300000429153442</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="8">
         <v>0.46242773532867432</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="8">
         <v>0.496257483959198</v>
       </c>
       <c r="L49" s="1">
@@ -9349,10 +9356,10 @@
       <c r="AE49" t="s">
         <v>395</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AF49" s="2">
         <v>38.92954477</v>
       </c>
-      <c r="AG49" s="1">
+      <c r="AG49" s="2">
         <v>-77.035858309999895</v>
       </c>
       <c r="AH49" s="1">
@@ -9433,15 +9440,15 @@
       <c r="F50" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="1">
         <v>0</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="8">
         <v>0.44237291812896729</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="1"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -9476,8 +9483,8 @@
       <c r="AE50" t="s">
         <v>233</v>
       </c>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
@@ -9518,15 +9525,15 @@
       <c r="F51" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="1">
         <v>0</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="8">
         <v>0.41337388753890991</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="1"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -9561,8 +9568,8 @@
       <c r="AE51" t="s">
         <v>233</v>
       </c>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
@@ -9603,15 +9610,15 @@
       <c r="F52" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="1">
         <v>0</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="8">
         <v>0.4799235463142395</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="K52" s="8"/>
       <c r="L52" s="1"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -9646,8 +9653,8 @@
       <c r="AE52" t="s">
         <v>233</v>
       </c>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
@@ -9688,15 +9695,15 @@
       <c r="F53" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="1">
         <v>0</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="8">
         <v>0.34959352016448975</v>
       </c>
-      <c r="K53" s="2"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="1"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -9731,8 +9738,8 @@
       <c r="AE53" t="s">
         <v>233</v>
       </c>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -9773,19 +9780,19 @@
       <c r="F54" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="8">
         <v>0.18000000715255737</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="8">
         <v>0.25400000810623169</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="8">
         <v>0.23797470331192017</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="8">
         <v>0.34393066167831421</v>
       </c>
       <c r="L54" s="1">
@@ -9846,10 +9853,10 @@
       <c r="AE54" t="s">
         <v>399</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AF54" s="2">
         <v>38.967284569999897</v>
       </c>
-      <c r="AG54" s="1">
+      <c r="AG54" s="2">
         <v>-77.019578350000003</v>
       </c>
       <c r="AH54" s="1">
@@ -9930,19 +9937,19 @@
       <c r="F55" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="8">
         <v>0.55000001192092896</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="8">
         <v>0.5690000057220459</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="8">
         <v>0.12154698371887207</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="8">
         <v>9.0909063816070557E-2</v>
       </c>
       <c r="L55" s="1">
@@ -10003,10 +10010,10 @@
       <c r="AE55" t="s">
         <v>426</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AF55" s="2">
         <v>38.936549999999997</v>
       </c>
-      <c r="AG55" s="1">
+      <c r="AG55" s="2">
         <v>-77.006950000000003</v>
       </c>
       <c r="AH55" s="1">
@@ -10089,19 +10096,19 @@
       <c r="F56" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="8">
         <v>0.18999999761581421</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="8">
         <v>0.27999997138977051</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="8">
         <v>0.3571428656578064</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="8">
         <v>0.37073171138763428</v>
       </c>
       <c r="L56" s="1">
@@ -10162,10 +10169,10 @@
       <c r="AE56" t="s">
         <v>278</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AF56" s="2">
         <v>38.954920000000001</v>
       </c>
-      <c r="AG56" s="1">
+      <c r="AG56" s="2">
         <v>-77.006640000000004</v>
       </c>
       <c r="AH56" s="1">
@@ -10248,15 +10255,15 @@
       <c r="F57" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2">
+      <c r="G57" s="8"/>
+      <c r="H57" s="8">
         <v>9.3999981880187988E-2</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8">
         <v>0.39901477098464966</v>
       </c>
       <c r="L57" s="1">
@@ -10301,10 +10308,10 @@
       <c r="AE57" t="s">
         <v>329</v>
       </c>
-      <c r="AF57" s="1">
+      <c r="AF57" s="2">
         <v>38.865749999999998</v>
       </c>
-      <c r="AG57" s="1">
+      <c r="AG57" s="2">
         <v>-76.990920000000003</v>
       </c>
       <c r="AH57" s="1">
@@ -10371,19 +10378,19 @@
       <c r="F58" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="8">
         <v>4.9000024795532227E-2</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="8">
         <v>0.4773755669593811</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="8">
         <v>0.44320714473724365</v>
       </c>
       <c r="L58" s="1">
@@ -10442,10 +10449,10 @@
       <c r="AE58" t="s">
         <v>290</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AF58" s="2">
         <v>38.891019999999997</v>
       </c>
-      <c r="AG58" s="1">
+      <c r="AG58" s="2">
         <v>-76.944820000000007</v>
       </c>
       <c r="AH58" s="1">
@@ -10526,19 +10533,19 @@
       <c r="F59" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="8">
         <v>8.9999973773956299E-2</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="8">
         <v>6.0000002384185791E-2</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="8">
         <v>0.44078946113586426</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="8">
         <v>0.44839859008789063</v>
       </c>
       <c r="L59" s="1">
@@ -10597,10 +10604,10 @@
       <c r="AE59" t="s">
         <v>290</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AF59" s="2">
         <v>38.891019999999997</v>
       </c>
-      <c r="AG59" s="1">
+      <c r="AG59" s="2">
         <v>-76.944820000000007</v>
       </c>
       <c r="AH59" s="1">
@@ -10681,19 +10688,19 @@
       <c r="F60" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="8">
         <v>0.14999997615814209</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="8">
         <v>0.1679999828338623</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="8">
         <v>0.45601850748062134</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="8">
         <v>0.40715885162353516</v>
       </c>
       <c r="L60" s="1">
@@ -10752,10 +10759,10 @@
       <c r="AE60" t="s">
         <v>249</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AF60" s="2">
         <v>38.924280000000003</v>
       </c>
-      <c r="AG60" s="1">
+      <c r="AG60" s="2">
         <v>-76.995739999999998</v>
       </c>
       <c r="AH60" s="1">
@@ -10836,19 +10843,19 @@
       <c r="F61" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="8">
         <v>8.9999973773956299E-2</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="8">
         <v>0.1119999885559082</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="8">
         <v>0.34353744983673096</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="8">
         <v>0.34242421388626099</v>
       </c>
       <c r="L61" s="1">
@@ -10907,10 +10914,10 @@
       <c r="AE61" t="s">
         <v>275</v>
       </c>
-      <c r="AF61" s="1">
+      <c r="AF61" s="2">
         <v>38.92474</v>
       </c>
-      <c r="AG61" s="1">
+      <c r="AG61" s="2">
         <v>-76.996009999999998</v>
       </c>
       <c r="AH61" s="1">
@@ -10991,19 +10998,19 @@
       <c r="F62" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
+      <c r="G62" s="8">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8">
         <v>5.9999823570251465E-3</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="8">
         <v>0.35218507051467896</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="8">
         <v>0.44158416986465454</v>
       </c>
       <c r="L62" s="1">
@@ -11060,10 +11067,10 @@
       <c r="AE62" t="s">
         <v>427</v>
       </c>
-      <c r="AF62" s="1">
+      <c r="AF62" s="2">
         <v>38.889479999999999</v>
       </c>
-      <c r="AG62" s="1">
+      <c r="AG62" s="2">
         <v>-76.92174</v>
       </c>
       <c r="AH62" s="1">
@@ -11142,19 +11149,19 @@
       <c r="F63" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="8">
         <v>0.55000001192092896</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="8">
         <v>0.53100001811981201</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="8">
         <v>7.5457334518432617E-2</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="8">
         <v>5.8943092823028564E-2</v>
       </c>
       <c r="L63" s="1">
@@ -11217,10 +11224,10 @@
       <c r="AE63" t="s">
         <v>382</v>
       </c>
-      <c r="AF63" s="1">
+      <c r="AF63" s="2">
         <v>38.95289674</v>
       </c>
-      <c r="AG63" s="1">
+      <c r="AG63" s="2">
         <v>-77.075199069999897</v>
       </c>
       <c r="AH63" s="1">
@@ -11303,19 +11310,19 @@
       <c r="F64" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="8">
         <v>2.8999984264373779E-2</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="8">
         <v>0.29677420854568481</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="8">
         <v>0.26219511032104492</v>
       </c>
       <c r="L64" s="1">
@@ -11374,10 +11381,10 @@
       <c r="AE64" t="s">
         <v>299</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AF64" s="2">
         <v>38.843499999999999</v>
       </c>
-      <c r="AG64" s="1">
+      <c r="AG64" s="2">
         <v>-76.998140000000006</v>
       </c>
       <c r="AH64" s="1">
@@ -11458,19 +11465,19 @@
       <c r="F65" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="8">
         <v>0.58000004291534424</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="8">
         <v>0.59799998998641968</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="8">
         <v>0.20952379703521729</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="8">
         <v>0.1846153736114502</v>
       </c>
       <c r="L65" s="1">
@@ -11531,10 +11538,10 @@
       <c r="AE65" t="s">
         <v>306</v>
       </c>
-      <c r="AF65" s="1">
+      <c r="AF65" s="2">
         <v>38.931310000000003</v>
       </c>
-      <c r="AG65" s="1">
+      <c r="AG65" s="2">
         <v>-77.036810000000003</v>
       </c>
       <c r="AH65" s="1">
@@ -11617,15 +11624,15 @@
       <c r="F66" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2">
+      <c r="G66" s="8"/>
+      <c r="H66" s="8">
         <v>0.37300002574920654</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
       </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2">
+      <c r="J66" s="8"/>
+      <c r="K66" s="8">
         <v>0.38416987657546997</v>
       </c>
       <c r="L66" s="1">
@@ -11672,10 +11679,10 @@
       <c r="AE66" t="s">
         <v>374</v>
       </c>
-      <c r="AF66" s="1">
+      <c r="AF66" s="2">
         <v>38.944699999999997</v>
       </c>
-      <c r="AG66" s="1">
+      <c r="AG66" s="2">
         <v>-77.0305409999999</v>
       </c>
       <c r="AH66" s="1">
@@ -11742,19 +11749,19 @@
       <c r="F67" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="8">
         <v>2.3999989032745361E-2</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="8">
         <v>0.17412936687469482</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="8">
         <v>0.26877468824386597</v>
       </c>
       <c r="L67" s="1">
@@ -11813,10 +11820,10 @@
       <c r="AE67" t="s">
         <v>297</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AF67" s="2">
         <v>38.8959939699999</v>
       </c>
-      <c r="AG67" s="1">
+      <c r="AG67" s="2">
         <v>-76.919927009999896</v>
       </c>
       <c r="AH67" s="1">
@@ -11895,19 +11902,19 @@
       <c r="F68" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="8">
         <v>0.24000000953674316</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="8">
         <v>0.23299998044967651</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="8">
         <v>0.33460801839828491</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="8">
         <v>0.27490037679672241</v>
       </c>
       <c r="L68" s="1">
@@ -11968,10 +11975,10 @@
       <c r="AE68" t="s">
         <v>406</v>
       </c>
-      <c r="AF68" s="1">
+      <c r="AF68" s="2">
         <v>38.913446</v>
       </c>
-      <c r="AG68" s="1">
+      <c r="AG68" s="2">
         <v>-77.070307999999898</v>
       </c>
       <c r="AH68" s="1">
@@ -12054,19 +12061,19 @@
       <c r="F69" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="8">
         <v>5.0999999046325684E-2</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="8">
         <v>0.26033693552017212</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="8">
         <v>0.32705479860305786</v>
       </c>
       <c r="L69" s="1">
@@ -12129,10 +12136,10 @@
       <c r="AE69" t="s">
         <v>405</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AF69" s="2">
         <v>38.907626999999898</v>
       </c>
-      <c r="AG69" s="1">
+      <c r="AG69" s="2">
         <v>-77.012690999999904</v>
       </c>
       <c r="AH69" s="1">
@@ -12215,19 +12222,19 @@
       <c r="F70" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="8">
         <v>6.9999992847442627E-2</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="8">
         <v>6.9000005722045898E-2</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="8">
         <v>0.45890408754348755</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="8">
         <v>0.47222220897674561</v>
       </c>
       <c r="L70" s="1">
@@ -12288,10 +12295,10 @@
       <c r="AE70" t="s">
         <v>418</v>
       </c>
-      <c r="AF70" s="1">
+      <c r="AF70" s="2">
         <v>38.877839999999999</v>
       </c>
-      <c r="AG70" s="1">
+      <c r="AG70" s="2">
         <v>-77.005080000000007</v>
       </c>
       <c r="AH70" s="1">
@@ -12374,19 +12381,19 @@
       <c r="F71" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="8">
         <v>4.999995231628418E-3</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="8">
         <v>0.39793282747268677</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="8">
         <v>0.34059947729110718</v>
       </c>
       <c r="L71" s="1">
@@ -12443,10 +12450,10 @@
       <c r="AE71" t="s">
         <v>274</v>
       </c>
-      <c r="AF71" s="1">
+      <c r="AF71" s="2">
         <v>38.840269999999997</v>
       </c>
-      <c r="AG71" s="1">
+      <c r="AG71" s="2">
         <v>-76.993039999999993</v>
       </c>
       <c r="AH71" s="1">
@@ -12525,19 +12532,19 @@
       <c r="F72" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="8">
         <v>2.2000014781951904E-2</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="8">
         <v>0.35521233081817627</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="8">
         <v>0.28820961713790894</v>
       </c>
       <c r="L72" s="1">
@@ -12594,10 +12601,10 @@
       <c r="AE72" t="s">
         <v>254</v>
       </c>
-      <c r="AF72" s="1">
+      <c r="AF72" s="2">
         <v>38.83099</v>
       </c>
-      <c r="AG72" s="1">
+      <c r="AG72" s="2">
         <v>-76.989599999999996</v>
       </c>
       <c r="AH72" s="1">
@@ -12676,19 +12683,19 @@
       <c r="F73" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="8">
         <v>2.6000022888183594E-2</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="8">
         <v>0.30341464281082153</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="8">
         <v>0.3667481541633606</v>
       </c>
       <c r="L73" s="1">
@@ -12749,10 +12756,10 @@
       <c r="AE73" t="s">
         <v>400</v>
       </c>
-      <c r="AF73" s="1">
+      <c r="AF73" s="2">
         <v>38.8904026599999</v>
       </c>
-      <c r="AG73" s="1">
+      <c r="AG73" s="2">
         <v>-76.979684289999895</v>
       </c>
       <c r="AH73" s="1">
@@ -12833,19 +12840,19 @@
       <c r="F74" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="8">
         <v>0.52999997138977051</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="8">
         <v>0.52799999713897705</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="8">
         <v>5.4736852645874023E-2</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="8">
         <v>5.0314486026763916E-2</v>
       </c>
       <c r="L74" s="1">
@@ -12908,10 +12915,10 @@
       <c r="AE74" t="s">
         <v>298</v>
       </c>
-      <c r="AF74" s="1">
+      <c r="AF74" s="2">
         <v>38.932727069999899</v>
       </c>
-      <c r="AG74" s="1">
+      <c r="AG74" s="2">
         <v>-77.065821139999898</v>
       </c>
       <c r="AH74" s="1">
@@ -12994,19 +13001,19 @@
       <c r="F75" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="8">
         <v>0.56000000238418579</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="8">
         <v>0.58599996566772461</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="8">
         <v>0.35195529460906982</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="8">
         <v>0.31304347515106201</v>
       </c>
       <c r="L75" s="1">
@@ -13067,10 +13074,10 @@
       <c r="AE75" t="s">
         <v>420</v>
       </c>
-      <c r="AF75" s="1">
+      <c r="AF75" s="2">
         <v>38.945599999999999</v>
       </c>
-      <c r="AG75" s="1">
+      <c r="AG75" s="2">
         <v>-77.022419999999997</v>
       </c>
       <c r="AH75" s="1">
@@ -13153,19 +13160,19 @@
       <c r="F76" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="8">
         <v>0.45999997854232788</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="8">
         <v>0.5130000114440918</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="8">
         <v>0.48341232538223267</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="8">
         <v>0.48222219944000244</v>
       </c>
       <c r="L76" s="1">
@@ -13224,10 +13231,10 @@
       <c r="AE76" t="s">
         <v>420</v>
       </c>
-      <c r="AF76" s="1">
+      <c r="AF76" s="2">
         <v>38.945599999999999</v>
       </c>
-      <c r="AG76" s="1">
+      <c r="AG76" s="2">
         <v>-77.022419999999997</v>
       </c>
       <c r="AH76" s="1">
@@ -13308,19 +13315,19 @@
       <c r="F77" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="8">
         <v>0.53999996185302734</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="8">
         <v>0.50300002098083496</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="8">
         <v>0.41644561290740967</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="8">
         <v>0.40517240762710571</v>
       </c>
       <c r="L77" s="1">
@@ -13381,10 +13388,10 @@
       <c r="AE77" t="s">
         <v>258</v>
       </c>
-      <c r="AF77" s="1">
+      <c r="AF77" s="2">
         <v>38.93432</v>
       </c>
-      <c r="AG77" s="1">
+      <c r="AG77" s="2">
         <v>-77.024240000000006</v>
       </c>
       <c r="AH77" s="1">
@@ -13467,19 +13474,19 @@
       <c r="F78" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="8">
         <v>7.4999988079071045E-2</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="8">
         <v>0.37354087829589844</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="8">
         <v>0.37999999523162842</v>
       </c>
       <c r="L78" s="1">
@@ -13542,10 +13549,10 @@
       <c r="AE78" t="s">
         <v>383</v>
       </c>
-      <c r="AF78" s="1">
+      <c r="AF78" s="2">
         <v>38.89243149</v>
       </c>
-      <c r="AG78" s="1">
+      <c r="AG78" s="2">
         <v>-76.978977920000005</v>
       </c>
       <c r="AH78" s="1">
@@ -13628,19 +13635,19 @@
       <c r="F79" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="8">
         <v>0.55000001192092896</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="8">
         <v>0.60000002384185791</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="8">
         <v>0.17714285850524902</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="8">
         <v>0.12857145071029663</v>
       </c>
       <c r="L79" s="1">
@@ -13701,10 +13708,10 @@
       <c r="AE79" t="s">
         <v>260</v>
       </c>
-      <c r="AF79" s="1">
+      <c r="AF79" s="2">
         <v>38.934989999999999</v>
       </c>
-      <c r="AG79" s="1">
+      <c r="AG79" s="2">
         <v>-76.990089999999995</v>
       </c>
       <c r="AH79" s="1">
@@ -13787,19 +13794,19 @@
       <c r="F80" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="8">
         <v>1.5999972820281982E-2</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="8">
         <v>0.35676628351211548</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="8">
         <v>0.36039888858795166</v>
       </c>
       <c r="L80" s="1">
@@ -13860,10 +13867,10 @@
       <c r="AE80" t="s">
         <v>414</v>
       </c>
-      <c r="AF80" s="1">
+      <c r="AF80" s="2">
         <v>38.859760000000001</v>
       </c>
-      <c r="AG80" s="1">
+      <c r="AG80" s="2">
         <v>-76.995350000000002</v>
       </c>
       <c r="AH80" s="1">
@@ -13946,15 +13953,15 @@
       <c r="F81" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2">
+      <c r="G81" s="8"/>
+      <c r="H81" s="8">
         <v>8.7000012397766113E-2</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
       </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2">
+      <c r="J81" s="8"/>
+      <c r="K81" s="8">
         <v>0.47488582134246826</v>
       </c>
       <c r="L81" s="1">
@@ -14001,10 +14008,10 @@
       <c r="AE81" t="s">
         <v>323</v>
       </c>
-      <c r="AF81" s="1">
+      <c r="AF81" s="2">
         <v>38.909080000000003</v>
       </c>
-      <c r="AG81" s="1">
+      <c r="AG81" s="2">
         <v>-77.013220000000004</v>
       </c>
       <c r="AH81" s="1">
@@ -14071,19 +14078,19 @@
       <c r="F82" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="8">
         <v>2.1000027656555176E-2</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="8">
         <v>0.23746699094772339</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="8">
         <v>0.25515460968017578</v>
       </c>
       <c r="L82" s="1">
@@ -14138,10 +14145,10 @@
       <c r="AE82" t="s">
         <v>376</v>
       </c>
-      <c r="AF82" s="1">
+      <c r="AF82" s="2">
         <v>38.897820000000003</v>
       </c>
-      <c r="AG82" s="1">
+      <c r="AG82" s="2">
         <v>-76.976479999999995</v>
       </c>
       <c r="AH82" s="1">
@@ -14220,19 +14227,19 @@
       <c r="F83" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="8">
         <v>1.3000011444091797E-2</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="8">
         <v>0.30985915660858154</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="8">
         <v>0.34347826242446899</v>
       </c>
       <c r="L83" s="1">
@@ -14291,10 +14298,10 @@
       <c r="AE83" t="s">
         <v>376</v>
       </c>
-      <c r="AF83" s="1">
+      <c r="AF83" s="2">
         <v>38.897820000000003</v>
       </c>
-      <c r="AG83" s="1">
+      <c r="AG83" s="2">
         <v>-76.976479999999995</v>
       </c>
       <c r="AH83" s="1">
@@ -14375,19 +14382,19 @@
       <c r="F84" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G84" s="2">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
+      <c r="G84" s="8">
+        <v>0</v>
+      </c>
+      <c r="H84" s="8">
         <v>2.3000001907348633E-2</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="8">
         <v>0.37333333492279053</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="8">
         <v>0.42894059419631958</v>
       </c>
       <c r="L84" s="1">
@@ -14446,10 +14453,10 @@
       <c r="AE84" t="s">
         <v>377</v>
       </c>
-      <c r="AF84" s="1">
+      <c r="AF84" s="2">
         <v>38.879379999999998</v>
       </c>
-      <c r="AG84" s="1">
+      <c r="AG84" s="2">
         <v>-76.986800000000002</v>
       </c>
       <c r="AH84" s="1">
@@ -14530,19 +14537,19 @@
       <c r="F85" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="8">
         <v>5.9999823570251465E-3</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="8">
         <v>0.41690963506698608</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="8">
         <v>0.43939393758773804</v>
       </c>
       <c r="L85" s="1">
@@ -14599,10 +14606,10 @@
       <c r="AE85" t="s">
         <v>377</v>
       </c>
-      <c r="AF85" s="1">
+      <c r="AF85" s="2">
         <v>38.879379999999998</v>
       </c>
-      <c r="AG85" s="1">
+      <c r="AG85" s="2">
         <v>-76.986800000000002</v>
       </c>
       <c r="AH85" s="1">
@@ -14681,19 +14688,19 @@
       <c r="F86" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G86" s="2">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
+      <c r="G86" s="8">
+        <v>0</v>
+      </c>
+      <c r="H86" s="8">
         <v>8.0000162124633789E-3</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="8">
         <v>0.41449606418609619</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="8">
         <v>0.43541944026947021</v>
       </c>
       <c r="L86" s="1">
@@ -14750,10 +14757,10 @@
       <c r="AE86" t="s">
         <v>269</v>
       </c>
-      <c r="AF86" s="1">
+      <c r="AF86" s="2">
         <v>38.897550000000003</v>
       </c>
-      <c r="AG86" s="1">
+      <c r="AG86" s="2">
         <v>-76.946349999999995</v>
       </c>
       <c r="AH86" s="1">
@@ -14832,15 +14839,15 @@
       <c r="F87" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2">
+      <c r="G87" s="8"/>
+      <c r="H87" s="8">
         <v>0.21399998664855957</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
       </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2">
+      <c r="J87" s="8"/>
+      <c r="K87" s="8">
         <v>0.45517241954803467</v>
       </c>
       <c r="L87" s="1">
@@ -14887,10 +14894,10 @@
       <c r="AE87" t="s">
         <v>322</v>
       </c>
-      <c r="AF87" s="1">
+      <c r="AF87" s="2">
         <v>38.960520000000002</v>
       </c>
-      <c r="AG87" s="1">
+      <c r="AG87" s="2">
         <v>-77.031599999999997</v>
       </c>
       <c r="AH87" s="1">
@@ -14957,19 +14964,19 @@
       <c r="F88" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G88" s="2">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
+      <c r="G88" s="8">
+        <v>0</v>
+      </c>
+      <c r="H88" s="8">
         <v>7.0000290870666504E-3</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="8">
         <v>0.28472220897674561</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="8">
         <v>0.28752261400222778</v>
       </c>
       <c r="L88" s="1">
@@ -15028,10 +15035,10 @@
       <c r="AE88" t="s">
         <v>242</v>
       </c>
-      <c r="AF88" s="1">
+      <c r="AF88" s="2">
         <v>38.847790000000003</v>
       </c>
-      <c r="AG88" s="1">
+      <c r="AG88" s="2">
         <v>-76.997010000000003</v>
       </c>
       <c r="AH88" s="1">
@@ -15113,15 +15120,15 @@
       <c r="F89" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2">
+      <c r="G89" s="8"/>
+      <c r="H89" s="8">
         <v>9.0000033378601074E-3</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
       </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2">
+      <c r="J89" s="8"/>
+      <c r="K89" s="8">
         <v>0.30472105741500854</v>
       </c>
       <c r="L89" s="1">
@@ -15166,10 +15173,10 @@
       <c r="AE89" t="s">
         <v>417</v>
       </c>
-      <c r="AF89" s="1">
+      <c r="AF89" s="2">
         <v>38.848300000000002</v>
       </c>
-      <c r="AG89" s="1">
+      <c r="AG89" s="2">
         <v>-76.996189999999999</v>
       </c>
       <c r="AH89" s="1">
@@ -15236,19 +15243,19 @@
       <c r="F90" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="8">
         <v>8.0000162124633789E-3</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="8">
         <v>0.29258519411087036</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="8">
         <v>0.32295721769332886</v>
       </c>
       <c r="L90" s="1">
@@ -15303,10 +15310,10 @@
       <c r="AE90" t="s">
         <v>417</v>
       </c>
-      <c r="AF90" s="1">
+      <c r="AF90" s="2">
         <v>38.848300000000002</v>
       </c>
-      <c r="AG90" s="1">
+      <c r="AG90" s="2">
         <v>-76.996189999999999</v>
       </c>
       <c r="AH90" s="1">
@@ -15373,19 +15380,19 @@
       <c r="F91" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="8">
         <v>5.9000015258789063E-2</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="8">
         <v>0.44718313217163086</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="8">
         <v>0.32786887884140015</v>
       </c>
       <c r="L91" s="1">
@@ -15444,10 +15451,10 @@
       <c r="AE91" t="s">
         <v>378</v>
       </c>
-      <c r="AF91" s="1">
+      <c r="AF91" s="2">
         <v>38.929589999999997</v>
       </c>
-      <c r="AG91" s="1">
+      <c r="AG91" s="2">
         <v>-76.966570000000004</v>
       </c>
       <c r="AH91" s="1">
@@ -15528,19 +15535,19 @@
       <c r="F92" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="8">
         <v>6.4999997615814209E-2</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="8">
         <v>0.44642853736877441</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="8">
         <v>0.30150753259658813</v>
       </c>
       <c r="L92" s="1">
@@ -15601,10 +15608,10 @@
       <c r="AE92" t="s">
         <v>378</v>
       </c>
-      <c r="AF92" s="1">
+      <c r="AF92" s="2">
         <v>38.929589999999997</v>
       </c>
-      <c r="AG92" s="1">
+      <c r="AG92" s="2">
         <v>-76.966570000000004</v>
       </c>
       <c r="AH92" s="1">
@@ -15687,19 +15694,19 @@
       <c r="F93" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="8">
         <v>2.7000010013580322E-2</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="8">
         <v>0.17957746982574463</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="8">
         <v>0.2225913405418396</v>
       </c>
       <c r="L93" s="1">
@@ -15758,10 +15765,10 @@
       <c r="AE93" t="s">
         <v>301</v>
       </c>
-      <c r="AF93" s="1">
+      <c r="AF93" s="2">
         <v>38.851733379999899</v>
       </c>
-      <c r="AG93" s="1">
+      <c r="AG93" s="2">
         <v>-76.970804779999895</v>
       </c>
       <c r="AH93" s="1">
@@ -15840,19 +15847,19 @@
       <c r="F94" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="8">
         <v>0.43000000715255737</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="8">
         <v>0.4779999852180481</v>
       </c>
       <c r="I94" s="1">
         <v>1</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="8">
         <v>0.4795081615447998</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="8">
         <v>0.41897231340408325</v>
       </c>
       <c r="L94" s="1">
@@ -15915,10 +15922,10 @@
       <c r="AE94" t="s">
         <v>302</v>
       </c>
-      <c r="AF94" s="1">
+      <c r="AF94" s="2">
         <v>38.913901289999899</v>
       </c>
-      <c r="AG94" s="1">
+      <c r="AG94" s="2">
         <v>-77.0286125599999</v>
       </c>
       <c r="AH94" s="1">
@@ -16001,15 +16008,15 @@
       <c r="F95" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2">
+      <c r="G95" s="8"/>
+      <c r="H95" s="8">
         <v>4.6999990940093994E-2</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2">
+      <c r="J95" s="8"/>
+      <c r="K95" s="8">
         <v>1.8324613571166992E-2</v>
       </c>
       <c r="L95" s="1">
@@ -16056,10 +16063,10 @@
       <c r="AE95" t="s">
         <v>343</v>
       </c>
-      <c r="AF95" s="1">
+      <c r="AF95" s="2">
         <v>38.897880600000001</v>
       </c>
-      <c r="AG95" s="1">
+      <c r="AG95" s="2">
         <v>-77.041199599999999</v>
       </c>
       <c r="AH95" s="1">
@@ -16126,19 +16133,19 @@
       <c r="F96" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="8">
         <v>0.35000002384185791</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="8">
         <v>0.41399997472763062</v>
       </c>
       <c r="I96" s="1">
         <v>1</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="8">
         <v>0.46249997615814209</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="8">
         <v>0.48571425676345825</v>
       </c>
       <c r="L96" s="1">
@@ -16201,10 +16208,10 @@
       <c r="AE96" t="s">
         <v>295</v>
       </c>
-      <c r="AF96" s="1">
+      <c r="AF96" s="2">
         <v>38.923943090000002</v>
       </c>
-      <c r="AG96" s="1">
+      <c r="AG96" s="2">
         <v>-77.038810580000003</v>
       </c>
       <c r="AH96" s="1">
@@ -16287,19 +16294,19 @@
       <c r="F97" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="8">
         <v>0.4100000262260437</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="8">
         <v>0.4649999737739563</v>
       </c>
       <c r="I97" s="1">
         <v>1</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="8">
         <v>0.24870467185974121</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="8">
         <v>0.21925133466720581</v>
       </c>
       <c r="L97" s="1">
@@ -16362,10 +16369,10 @@
       <c r="AE97" t="s">
         <v>304</v>
       </c>
-      <c r="AF97" s="1">
+      <c r="AF97" s="2">
         <v>38.915509030000003</v>
       </c>
-      <c r="AG97" s="1">
+      <c r="AG97" s="2">
         <v>-77.068613900000003</v>
       </c>
       <c r="AH97" s="1">
@@ -16448,19 +16455,19 @@
       <c r="F98" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="8">
         <v>6.0000002384185791E-2</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="8">
         <v>4.1000008583068848E-2</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="8">
         <v>0.39393937587738037</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="8">
         <v>0.47422683238983154</v>
       </c>
       <c r="L98" s="1">
@@ -16519,10 +16526,10 @@
       <c r="AE98" t="s">
         <v>303</v>
       </c>
-      <c r="AF98" s="1">
+      <c r="AF98" s="2">
         <v>38.91601</v>
       </c>
-      <c r="AG98" s="1">
+      <c r="AG98" s="2">
         <v>-77.00667</v>
       </c>
       <c r="AH98" s="1">
@@ -16603,19 +16610,19 @@
       <c r="F99" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="8">
         <v>1.3999998569488525E-2</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="8">
         <v>0.17954069375991821</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="8">
         <v>0.16618913412094116</v>
       </c>
       <c r="L99" s="1">
@@ -16674,10 +16681,10 @@
       <c r="AE99" t="s">
         <v>385</v>
       </c>
-      <c r="AF99" s="1">
+      <c r="AF99" s="2">
         <v>38.837737869999899</v>
       </c>
-      <c r="AG99" s="1">
+      <c r="AG99" s="2">
         <v>-76.997178750000003</v>
       </c>
       <c r="AH99" s="1">
@@ -16758,19 +16765,19 @@
       <c r="F100" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="8">
         <v>0.47000002861022949</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="8">
         <v>0.59299999475479126</v>
       </c>
       <c r="I100" s="1">
         <v>1</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="8">
         <v>0.13402062654495239</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="8">
         <v>5.1282048225402832E-2</v>
       </c>
       <c r="L100" s="1">
@@ -16833,10 +16840,10 @@
       <c r="AE100" t="s">
         <v>313</v>
       </c>
-      <c r="AF100" s="1">
+      <c r="AF100" s="2">
         <v>38.940722649999898</v>
       </c>
-      <c r="AG100" s="1">
+      <c r="AG100" s="2">
         <v>-77.071955220000007</v>
       </c>
       <c r="AH100" s="1">
@@ -16919,19 +16926,19 @@
       <c r="F101" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="8">
         <v>4.0000081062316895E-3</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="8">
         <v>9.9403560161590576E-2</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="8">
         <v>6.7415714263916016E-2</v>
       </c>
       <c r="L101" s="1">
@@ -16986,10 +16993,10 @@
       <c r="AE101" t="s">
         <v>307</v>
       </c>
-      <c r="AF101" s="1">
+      <c r="AF101" s="2">
         <v>38.82898591</v>
       </c>
-      <c r="AG101" s="1">
+      <c r="AG101" s="2">
         <v>-76.999184850000006</v>
       </c>
       <c r="AH101" s="1">
@@ -17068,19 +17075,19 @@
       <c r="F102" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="8">
         <v>0.12000000476837158</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="8">
         <v>0.125</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="8">
         <v>0.41340780258178711</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="8">
         <v>0.4080997109413147</v>
       </c>
       <c r="L102" s="1">
@@ -17139,10 +17146,10 @@
       <c r="AE102" t="s">
         <v>250</v>
       </c>
-      <c r="AF102" s="1">
+      <c r="AF102" s="2">
         <v>38.965719999999997</v>
       </c>
-      <c r="AG102" s="1">
+      <c r="AG102" s="2">
         <v>-77.008610000000004</v>
       </c>
       <c r="AH102" s="1">
@@ -17223,19 +17230,19 @@
       <c r="F103" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="8">
         <v>6.0000002384185791E-2</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="8">
         <v>5.9000015258789063E-2</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="8">
         <v>0.48936170339584351</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="8">
         <v>0.46167558431625366</v>
       </c>
       <c r="L103" s="1">
@@ -17294,10 +17301,10 @@
       <c r="AE103" t="s">
         <v>243</v>
       </c>
-      <c r="AF103" s="1">
+      <c r="AF103" s="2">
         <v>38.926949999999998</v>
       </c>
-      <c r="AG103" s="1">
+      <c r="AG103" s="2">
         <v>-76.994619999999998</v>
       </c>
       <c r="AH103" s="1">
@@ -17378,15 +17385,15 @@
       <c r="F104" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
       <c r="I104" s="1">
         <v>0</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104" s="8">
         <v>0.23976606130599976</v>
       </c>
-      <c r="K104" s="2"/>
+      <c r="K104" s="8"/>
       <c r="L104" s="1"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -17421,8 +17428,8 @@
       <c r="AE104" t="s">
         <v>233</v>
       </c>
-      <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
+      <c r="AF104" s="2"/>
+      <c r="AG104" s="2"/>
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
@@ -17463,19 +17470,19 @@
       <c r="F105" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="8">
         <v>3.7000000476837158E-2</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105" s="8">
         <v>0.25089603662490845</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="8">
         <v>0.2675585150718689</v>
       </c>
       <c r="L105" s="1">
@@ -17538,10 +17545,10 @@
       <c r="AE105" t="s">
         <v>308</v>
       </c>
-      <c r="AF105" s="1">
+      <c r="AF105" s="2">
         <v>38.905415320000003</v>
       </c>
-      <c r="AG105" s="1">
+      <c r="AG105" s="2">
         <v>-76.929947650000003</v>
       </c>
       <c r="AH105" s="1">
@@ -17624,19 +17631,19 @@
       <c r="F106" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
       <c r="I106" s="1">
         <v>0</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="8">
         <v>0.39115643501281738</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="8">
         <v>0.45323741436004639</v>
       </c>
       <c r="L106" s="1">
@@ -17695,10 +17702,10 @@
       <c r="AE106" t="s">
         <v>244</v>
       </c>
-      <c r="AF106" s="1">
+      <c r="AF106" s="2">
         <v>38.922840000000001</v>
       </c>
-      <c r="AG106" s="1">
+      <c r="AG106" s="2">
         <v>-77.019130000000004</v>
       </c>
       <c r="AH106" s="1">
@@ -17779,19 +17786,19 @@
       <c r="F107" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="8">
         <v>0.56000000238418579</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="8">
         <v>0.5559999942779541</v>
       </c>
       <c r="I107" s="1">
         <v>1</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="8">
         <v>7.8688502311706543E-2</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="8">
         <v>6.9908797740936279E-2</v>
       </c>
       <c r="L107" s="1">
@@ -17854,10 +17861,10 @@
       <c r="AE107" t="s">
         <v>309</v>
       </c>
-      <c r="AF107" s="1">
+      <c r="AF107" s="2">
         <v>38.90802</v>
       </c>
-      <c r="AG107" s="1">
+      <c r="AG107" s="2">
         <v>-77.064537999999899</v>
       </c>
       <c r="AH107" s="1">
@@ -17940,19 +17947,19 @@
       <c r="F108" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="8">
         <v>3.3999979496002197E-2</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108" s="8">
         <v>0.23963135480880737</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="8">
         <v>0.3549618124961853</v>
       </c>
       <c r="L108" s="1">
@@ -18011,10 +18018,10 @@
       <c r="AE108" t="s">
         <v>261</v>
       </c>
-      <c r="AF108" s="1">
+      <c r="AF108" s="2">
         <v>38.90455</v>
       </c>
-      <c r="AG108" s="1">
+      <c r="AG108" s="2">
         <v>-76.937100000000001</v>
       </c>
       <c r="AH108" s="1">
@@ -18095,19 +18102,19 @@
       <c r="F109" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="8">
         <v>4.2999982833862305E-2</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109" s="8">
         <v>0.37710440158843994</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="8">
         <v>0.4100000262260437</v>
       </c>
       <c r="L109" s="1">
@@ -18168,10 +18175,10 @@
       <c r="AE109" t="s">
         <v>252</v>
       </c>
-      <c r="AF109" s="1">
+      <c r="AF109" s="2">
         <v>38.964919999999999</v>
       </c>
-      <c r="AG109" s="1">
+      <c r="AG109" s="2">
         <v>-77.009929999999997</v>
       </c>
       <c r="AH109" s="1">
@@ -18254,19 +18261,19 @@
       <c r="F110" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="8">
         <v>3.200000524520874E-2</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110" s="8">
         <v>0.26368159055709839</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="8">
         <v>0.30851066112518311</v>
       </c>
       <c r="L110" s="1">
@@ -18323,10 +18330,10 @@
       <c r="AE110" t="s">
         <v>279</v>
       </c>
-      <c r="AF110" s="1">
+      <c r="AF110" s="2">
         <v>38.823900000000002</v>
       </c>
-      <c r="AG110" s="1">
+      <c r="AG110" s="2">
         <v>-77.00309</v>
       </c>
       <c r="AH110" s="1">
@@ -18405,19 +18412,19 @@
       <c r="F111" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="8">
         <v>0.55000001192092896</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="8">
         <v>0.55099999904632568</v>
       </c>
       <c r="I111" s="1">
         <v>1</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111" s="8">
         <v>0.11041009426116943</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="8">
         <v>0.14009660482406616</v>
       </c>
       <c r="L111" s="1">
@@ -18478,10 +18485,10 @@
       <c r="AE111" t="s">
         <v>421</v>
       </c>
-      <c r="AF111" s="1">
+      <c r="AF111" s="2">
         <v>38.923690000000001</v>
       </c>
-      <c r="AG111" s="1">
+      <c r="AG111" s="2">
         <v>-77.002759999999995</v>
       </c>
       <c r="AH111" s="1">
@@ -18564,19 +18571,19 @@
       <c r="F112" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="8">
         <v>0.14999997615814209</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="8">
         <v>0.18599998950958252</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112" s="8">
         <v>0.49785411357879639</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="8">
         <v>0.45050507783889771</v>
       </c>
       <c r="L112" s="1">
@@ -18639,10 +18646,10 @@
       <c r="AE112" t="s">
         <v>371</v>
       </c>
-      <c r="AF112" s="1">
+      <c r="AF112" s="2">
         <v>38.902757999999899</v>
       </c>
-      <c r="AG112" s="1">
+      <c r="AG112" s="2">
         <v>-76.996589020000002</v>
       </c>
       <c r="AH112" s="1">
@@ -18725,19 +18732,19 @@
       <c r="F113" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="8">
         <v>0.26999998092651367</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="8">
         <v>0.24500000476837158</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113" s="8">
         <v>1.1543989181518555E-2</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="8"/>
       <c r="L113" s="1">
         <v>0</v>
       </c>
@@ -18794,10 +18801,10 @@
       <c r="AE113" t="s">
         <v>310</v>
       </c>
-      <c r="AF113" s="1">
+      <c r="AF113" s="2">
         <v>38.947550419999899</v>
       </c>
-      <c r="AG113" s="1">
+      <c r="AG113" s="2">
         <v>-77.080994829999895</v>
       </c>
       <c r="AH113" s="1">
@@ -18874,19 +18881,19 @@
       <c r="F114" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="8">
         <v>6.0000002384185791E-2</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="8">
         <v>4.6000003814697266E-2</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114" s="8">
         <v>0.35379064083099365</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="8">
         <v>0.44590163230895996</v>
       </c>
       <c r="L114" s="1">
@@ -18947,10 +18954,10 @@
       <c r="AE114" t="s">
         <v>392</v>
       </c>
-      <c r="AF114" s="1">
+      <c r="AF114" s="2">
         <v>38.879870930000003</v>
       </c>
-      <c r="AG114" s="1">
+      <c r="AG114" s="2">
         <v>-77.022910659999894</v>
       </c>
       <c r="AH114" s="1">
@@ -19031,19 +19038,19 @@
       <c r="F115" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="8">
         <v>4.7999978065490723E-2</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J115" s="8">
         <v>0.21305841207504272</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="8">
         <v>0.22619044780731201</v>
       </c>
       <c r="L115" s="1">
@@ -19104,10 +19111,10 @@
       <c r="AE115" t="s">
         <v>386</v>
       </c>
-      <c r="AF115" s="1">
+      <c r="AF115" s="2">
         <v>38.851336910000001</v>
       </c>
-      <c r="AG115" s="1">
+      <c r="AG115" s="2">
         <v>-76.983703680000005</v>
       </c>
       <c r="AH115" s="1">
@@ -19188,19 +19195,19 @@
       <c r="F116" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
-      <c r="J116" s="2">
+      <c r="J116" s="8">
         <v>0.30036628246307373</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="8">
         <v>0.31625837087631226</v>
       </c>
       <c r="L116" s="1">
@@ -19259,10 +19266,10 @@
       <c r="AE116" t="s">
         <v>389</v>
       </c>
-      <c r="AF116" s="1">
+      <c r="AF116" s="2">
         <v>38.89331541</v>
       </c>
-      <c r="AG116" s="1">
+      <c r="AG116" s="2">
         <v>-76.932455149999896</v>
       </c>
       <c r="AH116" s="1">
@@ -19343,19 +19350,19 @@
       <c r="F117" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="8">
         <v>4.5000016689300537E-2</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
       </c>
-      <c r="J117" s="2">
+      <c r="J117" s="8">
         <v>0.14239484071731567</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="8">
         <v>0.14563107490539551</v>
       </c>
       <c r="L117" s="1">
@@ -19416,10 +19423,10 @@
       <c r="AE117" t="s">
         <v>312</v>
       </c>
-      <c r="AF117" s="1">
+      <c r="AF117" s="2">
         <v>38.86604269</v>
       </c>
-      <c r="AG117" s="1">
+      <c r="AG117" s="2">
         <v>-76.983621159999899</v>
       </c>
       <c r="AH117" s="1">
@@ -19500,19 +19507,19 @@
       <c r="F118" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="8">
         <v>0.32999998331069946</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="8">
         <v>0.33499997854232788</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
       </c>
-      <c r="J118" s="2">
+      <c r="J118" s="8">
         <v>3.133159875869751E-2</v>
       </c>
-      <c r="K118" s="2"/>
+      <c r="K118" s="8"/>
       <c r="L118" s="1">
         <v>0</v>
       </c>
@@ -19569,10 +19576,10 @@
       <c r="AE118" t="s">
         <v>326</v>
       </c>
-      <c r="AF118" s="1">
+      <c r="AF118" s="2">
         <v>38.926801840000003</v>
       </c>
-      <c r="AG118" s="1">
+      <c r="AG118" s="2">
         <v>-77.100527319999898</v>
       </c>
       <c r="AH118" s="1">
@@ -19649,19 +19656,19 @@
       <c r="F119" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="8">
         <v>3.5000026226043701E-2</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
       </c>
-      <c r="J119" s="2">
+      <c r="J119" s="8">
         <v>0.2298850417137146</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="8">
         <v>0.19086021184921265</v>
       </c>
       <c r="L119" s="1">
@@ -19720,10 +19727,10 @@
       <c r="AE119" t="s">
         <v>314</v>
       </c>
-      <c r="AF119" s="1">
+      <c r="AF119" s="2">
         <v>38.8830829999999</v>
       </c>
-      <c r="AG119" s="1">
+      <c r="AG119" s="2">
         <v>-76.957572999999897</v>
       </c>
       <c r="AH119" s="1">
@@ -19804,19 +19811,19 @@
       <c r="F120" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G120" s="2">
-        <v>0</v>
-      </c>
-      <c r="H120" s="2">
+      <c r="G120" s="8">
+        <v>0</v>
+      </c>
+      <c r="H120" s="8">
         <v>2.3999989032745361E-2</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J120" s="8">
         <v>0.12096774578094482</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="8">
         <v>0.15775400400161743</v>
       </c>
       <c r="L120" s="1">
@@ -19875,10 +19882,10 @@
       <c r="AE120" t="s">
         <v>372</v>
       </c>
-      <c r="AF120" s="1">
+      <c r="AF120" s="2">
         <v>38.842443189999898</v>
       </c>
-      <c r="AG120" s="1">
+      <c r="AG120" s="2">
         <v>-76.998238990000004</v>
       </c>
       <c r="AH120" s="1">
@@ -19957,15 +19964,15 @@
       <c r="F121" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2">
+      <c r="G121" s="8"/>
+      <c r="H121" s="8">
         <v>4.999995231628418E-3</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
       </c>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2">
+      <c r="J121" s="8"/>
+      <c r="K121" s="8">
         <v>9.7222208976745605E-2</v>
       </c>
       <c r="L121" s="1">
@@ -20008,10 +20015,10 @@
       <c r="AE121" t="s">
         <v>321</v>
       </c>
-      <c r="AF121" s="1">
+      <c r="AF121" s="2">
         <v>38.895850000000003</v>
       </c>
-      <c r="AG121" s="1">
+      <c r="AG121" s="2">
         <v>-76.98621</v>
       </c>
       <c r="AH121" s="1">
@@ -20078,19 +20085,19 @@
       <c r="F122" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="8">
         <v>0</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
       </c>
-      <c r="J122" s="2">
+      <c r="J122" s="8">
         <v>0.41121494770050049</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="8">
         <v>0.4557640552520752</v>
       </c>
       <c r="L122" s="1">
@@ -20145,10 +20152,10 @@
       <c r="AE122" t="s">
         <v>245</v>
       </c>
-      <c r="AF122" s="1">
+      <c r="AF122" s="2">
         <v>38.856619999999999</v>
       </c>
-      <c r="AG122" s="1">
+      <c r="AG122" s="2">
         <v>-76.988050000000001</v>
       </c>
       <c r="AH122" s="1">
@@ -20227,19 +20234,19 @@
       <c r="F123" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="8">
         <v>2.499997615814209E-2</v>
       </c>
       <c r="I123" s="1">
         <v>0</v>
       </c>
-      <c r="J123" s="2">
+      <c r="J123" s="8">
         <v>0.39150941371917725</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="8">
         <v>0.46570396423339844</v>
       </c>
       <c r="L123" s="1">
@@ -20296,10 +20303,10 @@
       <c r="AE123" t="s">
         <v>300</v>
       </c>
-      <c r="AF123" s="1">
+      <c r="AF123" s="2">
         <v>38.891950000000001</v>
       </c>
-      <c r="AG123" s="1">
+      <c r="AG123" s="2">
         <v>-76.924639999999997</v>
       </c>
       <c r="AH123" s="1">
@@ -20378,19 +20385,19 @@
       <c r="F124" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="8">
         <v>4.999995231628418E-3</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
       </c>
-      <c r="J124" s="2">
+      <c r="J124" s="8">
         <v>0.4889867901802063</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="8">
         <v>0.47138047218322754</v>
       </c>
       <c r="L124" s="1">
@@ -20447,10 +20454,10 @@
       <c r="AE124" t="s">
         <v>416</v>
       </c>
-      <c r="AF124" s="1">
+      <c r="AF124" s="2">
         <v>38.909599999999998</v>
       </c>
-      <c r="AG124" s="1">
+      <c r="AG124" s="2">
         <v>-76.993579999999994</v>
       </c>
       <c r="AH124" s="1">
@@ -20529,19 +20536,19 @@
       <c r="F125" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="8">
         <v>4.6000003814697266E-2</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
       </c>
-      <c r="J125" s="2">
+      <c r="J125" s="8">
         <v>0.47176080942153931</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="8">
         <v>0.44615381956100464</v>
       </c>
       <c r="L125" s="1">
@@ -20600,10 +20607,10 @@
       <c r="AE125" t="s">
         <v>285</v>
       </c>
-      <c r="AF125" s="1">
+      <c r="AF125" s="2">
         <v>38.908070000000002</v>
       </c>
-      <c r="AG125" s="1">
+      <c r="AG125" s="2">
         <v>-76.981139999999996</v>
       </c>
       <c r="AH125" s="1">
@@ -20684,19 +20691,19 @@
       <c r="F126" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="8">
         <v>1.0999977588653564E-2</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
       </c>
-      <c r="J126" s="2">
+      <c r="J126" s="8">
         <v>0.38484847545623779</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="8">
         <v>0.38352274894714355</v>
       </c>
       <c r="L126" s="1">
@@ -20755,10 +20762,10 @@
       <c r="AE126" t="s">
         <v>245</v>
       </c>
-      <c r="AF126" s="1">
+      <c r="AF126" s="2">
         <v>38.856619999999999</v>
       </c>
-      <c r="AG126" s="1">
+      <c r="AG126" s="2">
         <v>-76.988050000000001</v>
       </c>
       <c r="AH126" s="1">
@@ -20839,19 +20846,19 @@
       <c r="F127" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127" s="8">
         <v>7.9999983310699463E-2</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127" s="8">
         <v>4.9000024795532227E-2</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J127" s="8">
         <v>0.44871795177459717</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="8">
         <v>0.48475611209869385</v>
       </c>
       <c r="L127" s="1">
@@ -20910,10 +20917,10 @@
       <c r="AE127" t="s">
         <v>246</v>
       </c>
-      <c r="AF127" s="1">
+      <c r="AF127" s="2">
         <v>38.909889999999997</v>
       </c>
-      <c r="AG127" s="1">
+      <c r="AG127" s="2">
         <v>-77.018119999999996</v>
       </c>
       <c r="AH127" s="1">
@@ -20994,19 +21001,19 @@
       <c r="F128" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G128" s="2">
-        <v>0</v>
-      </c>
-      <c r="H128" s="2">
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
         <v>4.0000081062316895E-3</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
       </c>
-      <c r="J128" s="2">
+      <c r="J128" s="8">
         <v>0.4481927752494812</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128" s="8">
         <v>0.41865509748458862</v>
       </c>
       <c r="L128" s="1">
@@ -21063,10 +21070,10 @@
       <c r="AE128" t="s">
         <v>245</v>
       </c>
-      <c r="AF128" s="1">
+      <c r="AF128" s="2">
         <v>38.856619999999999</v>
       </c>
-      <c r="AG128" s="1">
+      <c r="AG128" s="2">
         <v>-76.988050000000001</v>
       </c>
       <c r="AH128" s="1">
@@ -21145,19 +21152,19 @@
       <c r="F129" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129" s="8">
         <v>1.8000006675720215E-2</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
       </c>
-      <c r="J129" s="2">
+      <c r="J129" s="8">
         <v>0.48203593492507935</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="8">
         <v>0.44213652610778809</v>
       </c>
       <c r="L129" s="1">
@@ -21214,10 +21221,10 @@
       <c r="AE129" t="s">
         <v>251</v>
       </c>
-      <c r="AF129" s="1">
+      <c r="AF129" s="2">
         <v>38.882629999999999</v>
       </c>
-      <c r="AG129" s="1">
+      <c r="AG129" s="2">
         <v>-76.934389999999993</v>
       </c>
       <c r="AH129" s="1">
@@ -21296,19 +21303,19 @@
       <c r="F130" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="8">
         <v>5.2999973297119141E-2</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
       </c>
-      <c r="J130" s="2">
+      <c r="J130" s="8">
         <v>0.42052984237670898</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130" s="8">
         <v>0.40909093618392944</v>
       </c>
       <c r="L130" s="1">
@@ -21367,10 +21374,10 @@
       <c r="AE130" t="s">
         <v>246</v>
       </c>
-      <c r="AF130" s="1">
+      <c r="AF130" s="2">
         <v>38.909889999999997</v>
       </c>
-      <c r="AG130" s="1">
+      <c r="AG130" s="2">
         <v>-77.018119999999996</v>
       </c>
       <c r="AH130" s="1">
@@ -21451,19 +21458,19 @@
       <c r="F131" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="8">
         <v>5.5999994277954102E-2</v>
       </c>
       <c r="I131" s="1">
         <v>0</v>
       </c>
-      <c r="J131" s="2">
+      <c r="J131" s="8">
         <v>0.41776317358016968</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="8">
         <v>0.40909093618392944</v>
       </c>
       <c r="L131" s="1">
@@ -21520,10 +21527,10 @@
       <c r="AE131" t="s">
         <v>251</v>
       </c>
-      <c r="AF131" s="1">
+      <c r="AF131" s="2">
         <v>38.882629999999999</v>
       </c>
-      <c r="AG131" s="1">
+      <c r="AG131" s="2">
         <v>-76.934389999999993</v>
       </c>
       <c r="AH131" s="1">
@@ -21602,19 +21609,19 @@
       <c r="F132" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="8">
         <v>2.7999997138977051E-2</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
       </c>
-      <c r="J132" s="2">
+      <c r="J132" s="8">
         <v>0.44444441795349121</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="8">
         <v>0.46319019794464111</v>
       </c>
       <c r="L132" s="1">
@@ -21673,10 +21680,10 @@
       <c r="AE132" t="s">
         <v>285</v>
       </c>
-      <c r="AF132" s="1">
+      <c r="AF132" s="2">
         <v>38.908070000000002</v>
       </c>
-      <c r="AG132" s="1">
+      <c r="AG132" s="2">
         <v>-76.981139999999996</v>
       </c>
       <c r="AH132" s="1">
@@ -21757,19 +21764,19 @@
       <c r="F133" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="8">
         <v>2.1000027656555176E-2</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
       </c>
-      <c r="J133" s="2">
+      <c r="J133" s="8">
         <v>0.45249998569488525</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K133" s="8">
         <v>0.44952380657196045</v>
       </c>
       <c r="L133" s="1">
@@ -21828,10 +21835,10 @@
       <c r="AE133" t="s">
         <v>251</v>
       </c>
-      <c r="AF133" s="1">
+      <c r="AF133" s="2">
         <v>38.882629999999999</v>
       </c>
-      <c r="AG133" s="1">
+      <c r="AG133" s="2">
         <v>-76.934389999999993</v>
       </c>
       <c r="AH133" s="1">
@@ -21912,19 +21919,19 @@
       <c r="F134" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="8">
         <v>1.8999993801116943E-2</v>
       </c>
       <c r="I134" s="1">
         <v>0</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J134" s="8">
         <v>0.37588649988174438</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="8">
         <v>0.44931507110595703</v>
       </c>
       <c r="L134" s="1">
@@ -21985,10 +21992,10 @@
       <c r="AE134" t="s">
         <v>300</v>
       </c>
-      <c r="AF134" s="1">
+      <c r="AF134" s="2">
         <v>38.891950000000001</v>
       </c>
-      <c r="AG134" s="1">
+      <c r="AG134" s="2">
         <v>-76.924639999999997</v>
       </c>
       <c r="AH134" s="1">
@@ -22071,19 +22078,19 @@
       <c r="F135" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="8">
         <v>3.600001335144043E-2</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J135" s="8">
         <v>0.41176468133926392</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="8">
         <v>0.45074629783630371</v>
       </c>
       <c r="L135" s="1">
@@ -22142,10 +22149,10 @@
       <c r="AE135" t="s">
         <v>285</v>
       </c>
-      <c r="AF135" s="1">
+      <c r="AF135" s="2">
         <v>38.908070000000002</v>
       </c>
-      <c r="AG135" s="1">
+      <c r="AG135" s="2">
         <v>-76.981139999999996</v>
       </c>
       <c r="AH135" s="1">
@@ -22226,15 +22233,15 @@
       <c r="F136" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2">
+      <c r="G136" s="8"/>
+      <c r="H136" s="8">
         <v>1.8000006675720215E-2</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2">
+      <c r="J136" s="8"/>
+      <c r="K136" s="8">
         <v>0.47533631324768066</v>
       </c>
       <c r="L136" s="1">
@@ -22279,10 +22286,10 @@
       <c r="AE136" t="s">
         <v>300</v>
       </c>
-      <c r="AF136" s="1">
+      <c r="AF136" s="2">
         <v>38.891950000000001</v>
       </c>
-      <c r="AG136" s="1">
+      <c r="AG136" s="2">
         <v>-76.924639999999997</v>
       </c>
       <c r="AH136" s="1">
@@ -22349,19 +22356,19 @@
       <c r="F137" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="8">
         <v>2.6000022888183594E-2</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
       </c>
-      <c r="J137" s="2">
+      <c r="J137" s="8">
         <v>0.40116280317306519</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="8">
         <v>0.38439303636550903</v>
       </c>
       <c r="L137" s="1">
@@ -22422,10 +22429,10 @@
       <c r="AE137" t="s">
         <v>246</v>
       </c>
-      <c r="AF137" s="1">
+      <c r="AF137" s="2">
         <v>38.909889999999997</v>
       </c>
-      <c r="AG137" s="1">
+      <c r="AG137" s="2">
         <v>-77.018119999999996</v>
       </c>
       <c r="AH137" s="1">
@@ -22508,19 +22515,19 @@
       <c r="F138" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H138" s="2">
+      <c r="H138" s="8">
         <v>1.5999972820281982E-2</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
       </c>
-      <c r="J138" s="2">
+      <c r="J138" s="8">
         <v>0.19819819927215576</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="8">
         <v>0.1606217622756958</v>
       </c>
       <c r="L138" s="1">
@@ -22577,10 +22584,10 @@
       <c r="AE138" t="s">
         <v>387</v>
       </c>
-      <c r="AF138" s="1">
+      <c r="AF138" s="2">
         <v>38.871286400000002</v>
       </c>
-      <c r="AG138" s="1">
+      <c r="AG138" s="2">
         <v>-76.980171299999895</v>
       </c>
       <c r="AH138" s="1">
@@ -22659,19 +22666,19 @@
       <c r="F139" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139" s="8">
         <v>0.30000001192092896</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139" s="8">
         <v>0.30000001192092896</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J139" s="8">
         <v>2.7259707450866699E-2</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="8">
         <v>2.2339046001434326E-2</v>
       </c>
       <c r="L139" s="1">
@@ -22734,10 +22741,10 @@
       <c r="AE139" t="s">
         <v>316</v>
       </c>
-      <c r="AF139" s="1">
+      <c r="AF139" s="2">
         <v>38.966627549999899</v>
       </c>
-      <c r="AG139" s="1">
+      <c r="AG139" s="2">
         <v>-77.06803712</v>
       </c>
       <c r="AH139" s="1">
@@ -22820,19 +22827,19 @@
       <c r="F140" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="8">
         <v>8.9999973773956299E-2</v>
       </c>
-      <c r="H140" s="2">
+      <c r="H140" s="8">
         <v>0.14200001955032349</v>
       </c>
       <c r="I140" s="1">
         <v>0</v>
       </c>
-      <c r="J140" s="2">
+      <c r="J140" s="8">
         <v>0.43823528289794922</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="8">
         <v>0.49226003885269165</v>
       </c>
       <c r="L140" s="1">
@@ -22893,10 +22900,10 @@
       <c r="AE140" t="s">
         <v>317</v>
       </c>
-      <c r="AF140" s="1">
+      <c r="AF140" s="2">
         <v>38.924704159999898</v>
       </c>
-      <c r="AG140" s="1">
+      <c r="AG140" s="2">
         <v>-76.977081850000005</v>
       </c>
       <c r="AH140" s="1">
@@ -22977,19 +22984,19 @@
       <c r="F141" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="8">
         <v>8.9999973773956299E-2</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="8">
         <v>0.14800000190734863</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
       </c>
-      <c r="J141" s="2">
+      <c r="J141" s="8">
         <v>0.35640138387680054</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="8">
         <v>0.42605632543563843</v>
       </c>
       <c r="L141" s="1">
@@ -23052,10 +23059,10 @@
       <c r="AE141" t="s">
         <v>379</v>
       </c>
-      <c r="AF141" s="1">
+      <c r="AF141" s="2">
         <v>38.915168790000003</v>
       </c>
-      <c r="AG141" s="1">
+      <c r="AG141" s="2">
         <v>-77.005886619999899</v>
       </c>
       <c r="AH141" s="1">
@@ -23138,19 +23145,19 @@
       <c r="F142" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142" s="8">
         <v>0.38999998569488525</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="8">
         <v>0.48199999332427979</v>
       </c>
       <c r="I142" s="1">
         <v>1</v>
       </c>
-      <c r="J142" s="2">
+      <c r="J142" s="8">
         <v>0.47564470767974854</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="8">
         <v>0.48238480091094971</v>
       </c>
       <c r="L142" s="1">
@@ -23211,10 +23218,10 @@
       <c r="AE142" t="s">
         <v>319</v>
       </c>
-      <c r="AF142" s="1">
+      <c r="AF142" s="2">
         <v>38.959972139999898</v>
       </c>
-      <c r="AG142" s="1">
+      <c r="AG142" s="2">
         <v>-76.999882540000002</v>
       </c>
       <c r="AH142" s="1">
@@ -23295,19 +23302,19 @@
       <c r="F143" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="8">
         <v>0.49000000953674316</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143" s="8">
         <v>0.53100001811981201</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
       </c>
-      <c r="J143" s="2">
+      <c r="J143" s="8">
         <v>0.1169590950012207</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="8">
         <v>9.859156608581543E-2</v>
       </c>
       <c r="L143" s="1">
@@ -23368,10 +23375,10 @@
       <c r="AE143" t="s">
         <v>273</v>
       </c>
-      <c r="AF143" s="1">
+      <c r="AF143" s="2">
         <v>38.962159999999997</v>
       </c>
-      <c r="AG143" s="1">
+      <c r="AG143" s="2">
         <v>-77.032399999999996</v>
       </c>
       <c r="AH143" s="1">
@@ -23454,19 +23461,19 @@
       <c r="F144" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144" s="8">
         <v>0.18999999761581421</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144" s="8">
         <v>0.22600001096725464</v>
       </c>
       <c r="I144" s="1">
         <v>0</v>
       </c>
-      <c r="J144" s="2">
+      <c r="J144" s="8">
         <v>0.47280335426330566</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="8">
         <v>0.41485506296157837</v>
       </c>
       <c r="L144" s="1">
@@ -23529,10 +23536,10 @@
       <c r="AE144" t="s">
         <v>320</v>
       </c>
-      <c r="AF144" s="1">
+      <c r="AF144" s="2">
         <v>38.828196779999899</v>
       </c>
-      <c r="AG144" s="1">
+      <c r="AG144" s="2">
         <v>-77.012891909999894</v>
       </c>
       <c r="AH144" s="1">
@@ -23615,19 +23622,19 @@
       <c r="F145" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145" s="8">
         <v>0.45999997854232788</v>
       </c>
-      <c r="H145" s="2">
+      <c r="H145" s="8">
         <v>0.57899999618530273</v>
       </c>
       <c r="I145" s="1">
         <v>1</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J145" s="8">
         <v>0.13513511419296265</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="8">
         <v>0.11724138259887695</v>
       </c>
       <c r="L145" s="1">
@@ -23688,10 +23695,10 @@
       <c r="AE145" t="s">
         <v>296</v>
       </c>
-      <c r="AF145" s="1">
+      <c r="AF145" s="2">
         <v>38.927860000000003</v>
       </c>
-      <c r="AG145" s="1">
+      <c r="AG145" s="2">
         <v>-76.998670000000004</v>
       </c>
       <c r="AH145" s="1">
@@ -23774,19 +23781,19 @@
       <c r="F146" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146" s="8">
         <v>0.31000000238418579</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H146" s="8">
         <v>0.41600000858306885</v>
       </c>
       <c r="I146" s="1">
         <v>1</v>
       </c>
-      <c r="J146" s="2">
+      <c r="J146" s="8">
         <v>0.32058823108673096</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="8">
         <v>0.24932974576950073</v>
       </c>
       <c r="L146" s="1">
@@ -23849,10 +23856,10 @@
       <c r="AE146" t="s">
         <v>325</v>
       </c>
-      <c r="AF146" s="1">
+      <c r="AF146" s="2">
         <v>38.898744139999899</v>
       </c>
-      <c r="AG146" s="1">
+      <c r="AG146" s="2">
         <v>-76.996492489999895</v>
       </c>
       <c r="AH146" s="1">
@@ -23935,15 +23942,15 @@
       <c r="F147" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2">
+      <c r="G147" s="8"/>
+      <c r="H147" s="8">
         <v>0.12999999523162842</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
       </c>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2">
+      <c r="J147" s="8"/>
+      <c r="K147" s="8">
         <v>0.44927537441253662</v>
       </c>
       <c r="L147" s="1">
@@ -23988,10 +23995,10 @@
       <c r="AE147" t="s">
         <v>388</v>
       </c>
-      <c r="AF147" s="1">
+      <c r="AF147" s="2">
         <v>38.943608560000001</v>
       </c>
-      <c r="AG147" s="1">
+      <c r="AG147" s="2">
         <v>-77.027776410000001</v>
       </c>
       <c r="AH147" s="1">
@@ -24058,19 +24065,19 @@
       <c r="F148" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G148" s="2">
-        <v>0</v>
-      </c>
-      <c r="H148" s="2">
+      <c r="G148" s="8">
+        <v>0</v>
+      </c>
+      <c r="H148" s="8">
         <v>0</v>
       </c>
       <c r="I148" s="1">
         <v>0</v>
       </c>
-      <c r="J148" s="2">
+      <c r="J148" s="8">
         <v>0.15163934230804443</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="8">
         <v>0.18565398454666138</v>
       </c>
       <c r="L148" s="1">
@@ -24127,10 +24134,10 @@
       <c r="AE148" t="s">
         <v>350</v>
       </c>
-      <c r="AF148" s="1">
+      <c r="AF148" s="2">
         <v>38.841645399999898</v>
       </c>
-      <c r="AG148" s="1">
+      <c r="AG148" s="2">
         <v>-76.983398570000006</v>
       </c>
       <c r="AH148" s="1">
@@ -24209,19 +24216,19 @@
       <c r="F149" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="8">
         <v>0.36000001430511475</v>
       </c>
-      <c r="H149" s="2">
+      <c r="H149" s="8">
         <v>0.35100001096725464</v>
       </c>
       <c r="I149" s="1">
         <v>0</v>
       </c>
-      <c r="J149" s="2">
+      <c r="J149" s="8">
         <v>1.3245046138763428E-2</v>
       </c>
-      <c r="K149" s="2"/>
+      <c r="K149" s="8"/>
       <c r="L149" s="1">
         <v>0</v>
       </c>
@@ -24278,10 +24285,10 @@
       <c r="AE149" t="s">
         <v>327</v>
       </c>
-      <c r="AF149" s="1">
+      <c r="AF149" s="2">
         <v>38.934292309999996</v>
       </c>
-      <c r="AG149" s="1">
+      <c r="AG149" s="2">
         <v>-77.087826190000001</v>
       </c>
       <c r="AH149" s="1">
@@ -24358,19 +24365,19 @@
       <c r="F150" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150" s="8">
         <v>0.36000001430511475</v>
       </c>
-      <c r="H150" s="2">
+      <c r="H150" s="8">
         <v>0.35699999332427979</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
       </c>
-      <c r="J150" s="2">
+      <c r="J150" s="8">
         <v>0.36386764049530029</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="8">
         <v>0.33919596672058105</v>
       </c>
       <c r="L150" s="1">
@@ -24433,10 +24440,10 @@
       <c r="AE150" t="s">
         <v>331</v>
       </c>
-      <c r="AF150" s="1">
+      <c r="AF150" s="2">
         <v>38.919111999999899</v>
       </c>
-      <c r="AG150" s="1">
+      <c r="AG150" s="2">
         <v>-77.040821999999906</v>
       </c>
       <c r="AH150" s="1">
@@ -24519,19 +24526,19 @@
       <c r="F151" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="8">
         <v>0.10000002384185791</v>
       </c>
-      <c r="H151" s="2">
+      <c r="H151" s="8">
         <v>0.13200002908706665</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
       </c>
-      <c r="J151" s="2">
+      <c r="J151" s="8">
         <v>0.37795275449752808</v>
       </c>
-      <c r="K151" s="2">
+      <c r="K151" s="8">
         <v>0.4253731369972229</v>
       </c>
       <c r="L151" s="1">
@@ -24592,10 +24599,10 @@
       <c r="AE151" t="s">
         <v>253</v>
       </c>
-      <c r="AF151" s="1">
+      <c r="AF151" s="2">
         <v>38.929609999999997</v>
       </c>
-      <c r="AG151" s="1">
+      <c r="AG151" s="2">
         <v>-76.986859999999993</v>
       </c>
       <c r="AH151" s="1">
@@ -24678,19 +24685,19 @@
       <c r="F152" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152" s="8">
         <v>0.49000000953674316</v>
       </c>
-      <c r="H152" s="2">
+      <c r="H152" s="8">
         <v>0.43699997663497925</v>
       </c>
       <c r="I152" s="1">
         <v>1</v>
       </c>
-      <c r="J152" s="2">
+      <c r="J152" s="8">
         <v>0.13114750385284424</v>
       </c>
-      <c r="K152" s="2">
+      <c r="K152" s="8">
         <v>8.010333776473999E-2</v>
       </c>
       <c r="L152" s="1">
@@ -24753,10 +24760,10 @@
       <c r="AE152" t="s">
         <v>328</v>
       </c>
-      <c r="AF152" s="1">
+      <c r="AF152" s="2">
         <v>38.8921851899999</v>
       </c>
-      <c r="AG152" s="1">
+      <c r="AG152" s="2">
         <v>-76.988657500000002</v>
       </c>
       <c r="AH152" s="1">
@@ -24839,19 +24846,19 @@
       <c r="F153" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
-      <c r="H153" s="2">
+      <c r="H153" s="8">
         <v>7.4999988079071045E-2</v>
       </c>
       <c r="I153" s="1">
         <v>0</v>
       </c>
-      <c r="J153" s="2">
+      <c r="J153" s="8">
         <v>0.41089111566543579</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="8">
         <v>0.43661969900131226</v>
       </c>
       <c r="L153" s="1">
@@ -24912,10 +24919,10 @@
       <c r="AE153" t="s">
         <v>393</v>
       </c>
-      <c r="AF153" s="1">
+      <c r="AF153" s="2">
         <v>38.915220120000001</v>
       </c>
-      <c r="AG153" s="1">
+      <c r="AG153" s="2">
         <v>-77.004122440000003</v>
       </c>
       <c r="AH153" s="1">
@@ -24996,19 +25003,19 @@
       <c r="F154" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154" s="8">
         <v>7.9999983310699463E-2</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154" s="8">
         <v>0.13700002431869507</v>
       </c>
       <c r="I154" s="1">
         <v>0</v>
       </c>
-      <c r="J154" s="2">
+      <c r="J154" s="8">
         <v>0.37054264545440674</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154" s="8">
         <v>0.33279484510421753</v>
       </c>
       <c r="L154" s="1">
@@ -25067,10 +25074,10 @@
       <c r="AE154" t="s">
         <v>393</v>
       </c>
-      <c r="AF154" s="1">
+      <c r="AF154" s="2">
         <v>38.915220120000001</v>
       </c>
-      <c r="AG154" s="1">
+      <c r="AG154" s="2">
         <v>-77.004122440000003</v>
       </c>
       <c r="AH154" s="1">
@@ -25151,19 +25158,19 @@
       <c r="F155" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="8">
         <v>0.39999997615814209</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="8">
         <v>0.38200002908706665</v>
       </c>
       <c r="I155" s="1">
         <v>0</v>
       </c>
-      <c r="J155" s="2">
+      <c r="J155" s="8">
         <v>0.46009385585784912</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="8">
         <v>0.4421965479850769</v>
       </c>
       <c r="L155" s="1">
@@ -25224,10 +25231,10 @@
       <c r="AE155" t="s">
         <v>262</v>
       </c>
-      <c r="AF155" s="1">
+      <c r="AF155" s="2">
         <v>38.918750000000003</v>
       </c>
-      <c r="AG155" s="1">
+      <c r="AG155" s="2">
         <v>-77.029949999999999</v>
       </c>
       <c r="AH155" s="1">
@@ -25310,19 +25317,19 @@
       <c r="F156" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156" s="8">
         <v>0.12000000476837158</v>
       </c>
-      <c r="H156" s="2">
+      <c r="H156" s="8">
         <v>0.14600002765655518</v>
       </c>
       <c r="I156" s="1">
         <v>0</v>
       </c>
-      <c r="J156" s="2">
+      <c r="J156" s="8">
         <v>0.25628143548965454</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="8">
         <v>0.33854168653488159</v>
       </c>
       <c r="L156" s="1">
@@ -25385,10 +25392,10 @@
       <c r="AE156" t="s">
         <v>330</v>
       </c>
-      <c r="AF156" s="1">
+      <c r="AF156" s="2">
         <v>38.897376020000003</v>
       </c>
-      <c r="AG156" s="1">
+      <c r="AG156" s="2">
         <v>-76.982904320000003</v>
       </c>
       <c r="AH156" s="1">
@@ -25471,15 +25478,15 @@
       <c r="F157" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2">
+      <c r="G157" s="8"/>
+      <c r="H157" s="8">
         <v>0</v>
       </c>
       <c r="I157" s="1">
         <v>0</v>
       </c>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2">
+      <c r="J157" s="8"/>
+      <c r="K157" s="8">
         <v>0.14473682641983032</v>
       </c>
       <c r="L157" s="1">
@@ -25522,10 +25529,10 @@
       <c r="AE157" t="s">
         <v>315</v>
       </c>
-      <c r="AF157" s="1">
+      <c r="AF157" s="2">
         <v>38.896709999999999</v>
       </c>
-      <c r="AG157" s="1">
+      <c r="AG157" s="2">
         <v>-76.977559999999997</v>
       </c>
       <c r="AH157" s="1">
@@ -25592,19 +25599,19 @@
       <c r="F158" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H158" s="2">
+      <c r="H158" s="8">
         <v>2.7000010013580322E-2</v>
       </c>
       <c r="I158" s="1">
         <v>0</v>
       </c>
-      <c r="J158" s="2">
+      <c r="J158" s="8">
         <v>0.1189873218536377</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="8">
         <v>0.16049385070800781</v>
       </c>
       <c r="L158" s="1">
@@ -25663,10 +25670,10 @@
       <c r="AE158" t="s">
         <v>332</v>
       </c>
-      <c r="AF158" s="1">
+      <c r="AF158" s="2">
         <v>38.856656000000001</v>
       </c>
-      <c r="AG158" s="1">
+      <c r="AG158" s="2">
         <v>-76.982943680000005</v>
       </c>
       <c r="AH158" s="1">
@@ -25745,19 +25752,19 @@
       <c r="F159" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G159" s="2">
+      <c r="G159" s="8">
         <v>0.61000001430511475</v>
       </c>
-      <c r="H159" s="2">
+      <c r="H159" s="8">
         <v>0.61800003051757813</v>
       </c>
       <c r="I159" s="1">
         <v>1</v>
       </c>
-      <c r="J159" s="2">
+      <c r="J159" s="8">
         <v>0.14108908176422119</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="8">
         <v>9.2362344264984131E-2</v>
       </c>
       <c r="L159" s="1">
@@ -25818,10 +25825,10 @@
       <c r="AE159" t="s">
         <v>422</v>
       </c>
-      <c r="AF159" s="1">
+      <c r="AF159" s="2">
         <v>38.909410000000001</v>
       </c>
-      <c r="AG159" s="1">
+      <c r="AG159" s="2">
         <v>-77.010310000000004</v>
       </c>
       <c r="AH159" s="1">
@@ -25904,19 +25911,19 @@
       <c r="F160" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G160" s="2">
+      <c r="G160" s="8">
         <v>0.36000001430511475</v>
       </c>
-      <c r="H160" s="2">
+      <c r="H160" s="8">
         <v>0.40600001811981201</v>
       </c>
       <c r="I160" s="1">
         <v>1</v>
       </c>
-      <c r="J160" s="2">
+      <c r="J160" s="8">
         <v>2.9032230377197266E-2</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="8">
         <v>1.7482519149780273E-2</v>
       </c>
       <c r="L160" s="1">
@@ -25979,10 +25986,10 @@
       <c r="AE160" t="s">
         <v>334</v>
       </c>
-      <c r="AF160" s="1">
+      <c r="AF160" s="2">
         <v>38.9529339999999</v>
       </c>
-      <c r="AG160" s="1">
+      <c r="AG160" s="2">
         <v>-77.070078999999893</v>
       </c>
       <c r="AH160" s="1">
@@ -26065,19 +26072,19 @@
       <c r="F161" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G161" s="2">
+      <c r="G161" s="8">
         <v>6.9999992847442627E-2</v>
       </c>
-      <c r="H161" s="2">
+      <c r="H161" s="8">
         <v>7.8999996185302734E-2</v>
       </c>
       <c r="I161" s="1">
         <v>0</v>
       </c>
-      <c r="J161" s="2">
+      <c r="J161" s="8">
         <v>0.23177081346511841</v>
       </c>
-      <c r="K161" s="2">
+      <c r="K161" s="8">
         <v>0.2762148380279541</v>
       </c>
       <c r="L161" s="1">
@@ -26140,10 +26147,10 @@
       <c r="AE161" t="s">
         <v>335</v>
       </c>
-      <c r="AF161" s="1">
+      <c r="AF161" s="2">
         <v>38.885954419999898</v>
       </c>
-      <c r="AG161" s="1">
+      <c r="AG161" s="2">
         <v>-76.930796509999894</v>
       </c>
       <c r="AH161" s="1">
@@ -26226,19 +26233,19 @@
       <c r="F162" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G162" s="2">
-        <v>0</v>
-      </c>
-      <c r="H162" s="2">
+      <c r="G162" s="8">
+        <v>0</v>
+      </c>
+      <c r="H162" s="8">
         <v>0</v>
       </c>
       <c r="I162" s="1">
         <v>0</v>
       </c>
-      <c r="J162" s="2">
+      <c r="J162" s="8">
         <v>0.30392158031463623</v>
       </c>
-      <c r="K162" s="2">
+      <c r="K162" s="8">
         <v>0.34181815385818481</v>
       </c>
       <c r="L162" s="1">
@@ -26293,10 +26300,10 @@
       <c r="AE162" t="s">
         <v>279</v>
       </c>
-      <c r="AF162" s="1">
+      <c r="AF162" s="2">
         <v>38.823900000000002</v>
       </c>
-      <c r="AG162" s="1">
+      <c r="AG162" s="2">
         <v>-77.00309</v>
       </c>
       <c r="AH162" s="1">
@@ -26375,19 +26382,19 @@
       <c r="F163" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G163" s="2">
+      <c r="G163" s="8">
         <v>8.9999973773956299E-2</v>
       </c>
-      <c r="H163" s="2">
+      <c r="H163" s="8">
         <v>9.6000015735626221E-2</v>
       </c>
       <c r="I163" s="1">
         <v>0</v>
       </c>
-      <c r="J163" s="2">
+      <c r="J163" s="8">
         <v>0.37024223804473877</v>
       </c>
-      <c r="K163" s="2">
+      <c r="K163" s="8">
         <v>0.27411168813705444</v>
       </c>
       <c r="L163" s="1">
@@ -26448,10 +26455,10 @@
       <c r="AE163" t="s">
         <v>337</v>
       </c>
-      <c r="AF163" s="1">
+      <c r="AF163" s="2">
         <v>38.925177980000001</v>
       </c>
-      <c r="AG163" s="1">
+      <c r="AG163" s="2">
         <v>-76.991842879999894</v>
       </c>
       <c r="AH163" s="1">
@@ -26532,15 +26539,15 @@
       <c r="F164" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
       <c r="I164" s="1">
         <v>0</v>
       </c>
-      <c r="J164" s="2">
+      <c r="J164" s="8">
         <v>0.18656718730926514</v>
       </c>
-      <c r="K164" s="2"/>
+      <c r="K164" s="8"/>
       <c r="L164" s="1"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -26575,8 +26582,8 @@
       <c r="AE164" t="s">
         <v>233</v>
       </c>
-      <c r="AF164" s="1"/>
-      <c r="AG164" s="1"/>
+      <c r="AF164" s="2"/>
+      <c r="AG164" s="2"/>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
@@ -26617,19 +26624,19 @@
       <c r="F165" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G165" s="2">
+      <c r="G165" s="8">
         <v>0.38999998569488525</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165" s="8">
         <v>0.40499997138977051</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
       </c>
-      <c r="J165" s="2">
+      <c r="J165" s="8">
         <v>8.3076953887939453E-2</v>
       </c>
-      <c r="K165" s="2">
+      <c r="K165" s="8">
         <v>8.7537109851837158E-2</v>
       </c>
       <c r="L165" s="1">
@@ -26692,10 +26699,10 @@
       <c r="AE165" t="s">
         <v>339</v>
       </c>
-      <c r="AF165" s="1">
+      <c r="AF165" s="2">
         <v>38.923595829999897</v>
       </c>
-      <c r="AG165" s="1">
+      <c r="AG165" s="2">
         <v>-77.057203369999897</v>
       </c>
       <c r="AH165" s="1">
@@ -26778,19 +26785,19 @@
       <c r="F166" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
+      <c r="G166" s="8">
+        <v>0</v>
+      </c>
+      <c r="H166" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
       <c r="I166" s="1">
         <v>0</v>
       </c>
-      <c r="J166" s="2">
+      <c r="J166" s="8">
         <v>0.14999997615814209</v>
       </c>
-      <c r="K166" s="2">
+      <c r="K166" s="8">
         <v>0.1192893385887146</v>
       </c>
       <c r="L166" s="1">
@@ -26851,10 +26858,10 @@
       <c r="AE166" t="s">
         <v>340</v>
       </c>
-      <c r="AF166" s="1">
+      <c r="AF166" s="2">
         <v>38.82696636</v>
       </c>
-      <c r="AG166" s="1">
+      <c r="AG166" s="2">
         <v>-77.008484710000005</v>
       </c>
       <c r="AH166" s="1">
@@ -26935,19 +26942,19 @@
       <c r="F167" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G167" s="8">
         <v>0.18000000715255737</v>
       </c>
-      <c r="H167" s="2">
+      <c r="H167" s="8">
         <v>0.27899998426437378</v>
       </c>
       <c r="I167" s="1">
         <v>0</v>
       </c>
-      <c r="J167" s="2">
+      <c r="J167" s="8">
         <v>0.48923075199127197</v>
       </c>
-      <c r="K167" s="2">
+      <c r="K167" s="8">
         <v>0.46406573057174683</v>
       </c>
       <c r="L167" s="1">
@@ -27008,10 +27015,10 @@
       <c r="AE167" t="s">
         <v>263</v>
       </c>
-      <c r="AF167" s="1">
+      <c r="AF167" s="2">
         <v>38.961370000000002</v>
       </c>
-      <c r="AG167" s="1">
+      <c r="AG167" s="2">
         <v>-77.024720000000002</v>
       </c>
       <c r="AH167" s="1">
@@ -27094,19 +27101,19 @@
       <c r="F168" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168" s="8">
         <v>0.12000000476837158</v>
       </c>
-      <c r="H168" s="2">
+      <c r="H168" s="8">
         <v>0.18199998140335083</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
       </c>
-      <c r="J168" s="2">
+      <c r="J168" s="8">
         <v>0.42553192377090454</v>
       </c>
-      <c r="K168" s="2">
+      <c r="K168" s="8">
         <v>0.3429751992225647</v>
       </c>
       <c r="L168" s="1">
@@ -27165,10 +27172,10 @@
       <c r="AE168" t="s">
         <v>263</v>
       </c>
-      <c r="AF168" s="1">
+      <c r="AF168" s="2">
         <v>38.961370000000002</v>
       </c>
-      <c r="AG168" s="1">
+      <c r="AG168" s="2">
         <v>-77.024720000000002</v>
       </c>
       <c r="AH168" s="1">
@@ -27249,19 +27256,19 @@
       <c r="F169" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="8">
         <v>0.12999999523162842</v>
       </c>
-      <c r="H169" s="2">
+      <c r="H169" s="8">
         <v>0.24299997091293335</v>
       </c>
       <c r="I169" s="1">
         <v>0</v>
       </c>
-      <c r="J169" s="2">
+      <c r="J169" s="8">
         <v>0.40433210134506226</v>
       </c>
-      <c r="K169" s="2">
+      <c r="K169" s="8">
         <v>0.48000001907348633</v>
       </c>
       <c r="L169" s="1">
@@ -27324,10 +27331,10 @@
       <c r="AE169" t="s">
         <v>341</v>
       </c>
-      <c r="AF169" s="1">
+      <c r="AF169" s="2">
         <v>38.885171</v>
       </c>
-      <c r="AG169" s="1">
+      <c r="AG169" s="2">
         <v>-76.984983999999898</v>
       </c>
       <c r="AH169" s="1">
@@ -27410,19 +27417,19 @@
       <c r="F170" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G170" s="8">
         <v>0.42000001668930054</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170" s="8">
         <v>0.41699999570846558</v>
       </c>
       <c r="I170" s="1">
         <v>1</v>
       </c>
-      <c r="J170" s="2">
+      <c r="J170" s="8">
         <v>7.0484578609466553E-2</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170" s="8">
         <v>6.9565236568450928E-2</v>
       </c>
       <c r="L170" s="1">
@@ -27485,10 +27492,10 @@
       <c r="AE170" t="s">
         <v>346</v>
       </c>
-      <c r="AF170" s="1">
+      <c r="AF170" s="2">
         <v>38.892896319999899</v>
       </c>
-      <c r="AG170" s="1">
+      <c r="AG170" s="2">
         <v>-76.999857989999896</v>
       </c>
       <c r="AH170" s="1">
@@ -27571,19 +27578,19 @@
       <c r="F171" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G171" s="2">
+      <c r="G171" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="8">
         <v>8.2000017166137695E-2</v>
       </c>
       <c r="I171" s="1">
         <v>0</v>
       </c>
-      <c r="J171" s="2">
+      <c r="J171" s="8">
         <v>0.4458804726600647</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171" s="8">
         <v>0.48692810535430908</v>
       </c>
       <c r="L171" s="1">
@@ -27644,8 +27651,8 @@
       <c r="AE171" t="s">
         <v>233</v>
       </c>
-      <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
+      <c r="AF171" s="2"/>
+      <c r="AG171" s="2"/>
       <c r="AH171" s="1">
         <v>306</v>
       </c>
@@ -27726,19 +27733,19 @@
       <c r="F172" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G172" s="2">
+      <c r="G172" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
-      <c r="H172" s="2">
+      <c r="H172" s="8">
         <v>4.2999982833862305E-2</v>
       </c>
       <c r="I172" s="1">
         <v>0</v>
       </c>
-      <c r="J172" s="2">
+      <c r="J172" s="8">
         <v>0.48606812953948975</v>
       </c>
-      <c r="K172" s="2">
+      <c r="K172" s="8">
         <v>0.49390244483947754</v>
       </c>
       <c r="L172" s="1">
@@ -27799,10 +27806,10 @@
       <c r="AE172" t="s">
         <v>407</v>
       </c>
-      <c r="AF172" s="1">
+      <c r="AF172" s="2">
         <v>38.901992020000002</v>
       </c>
-      <c r="AG172" s="1">
+      <c r="AG172" s="2">
         <v>-76.971897630000001</v>
       </c>
       <c r="AH172" s="1">
@@ -27885,19 +27892,19 @@
       <c r="F173" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G173" s="2">
+      <c r="G173" s="8">
         <v>6.9999992847442627E-2</v>
       </c>
-      <c r="H173" s="2">
+      <c r="H173" s="8">
         <v>9.7000002861022949E-2</v>
       </c>
       <c r="I173" s="1">
         <v>0</v>
       </c>
-      <c r="J173" s="2">
+      <c r="J173" s="8">
         <v>0.17289721965789795</v>
       </c>
-      <c r="K173" s="2">
+      <c r="K173" s="8">
         <v>0.24296677112579346</v>
       </c>
       <c r="L173" s="1">
@@ -27958,10 +27965,10 @@
       <c r="AE173" t="s">
         <v>344</v>
       </c>
-      <c r="AF173" s="1">
+      <c r="AF173" s="2">
         <v>38.887240200000001</v>
       </c>
-      <c r="AG173" s="1">
+      <c r="AG173" s="2">
         <v>-76.939934679999894</v>
       </c>
       <c r="AH173" s="1">
@@ -28042,17 +28049,17 @@
       <c r="F174" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G174" s="2">
+      <c r="G174" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H174" s="2"/>
+      <c r="H174" s="8"/>
       <c r="I174" s="1">
         <v>0</v>
       </c>
-      <c r="J174" s="2">
+      <c r="J174" s="8">
         <v>0.38588237762451172</v>
       </c>
-      <c r="K174" s="2"/>
+      <c r="K174" s="8"/>
       <c r="L174" s="1"/>
       <c r="M174" s="2">
         <v>0.99000000953674316</v>
@@ -28093,8 +28100,8 @@
       <c r="AE174" t="s">
         <v>233</v>
       </c>
-      <c r="AF174" s="1"/>
-      <c r="AG174" s="1"/>
+      <c r="AF174" s="2"/>
+      <c r="AG174" s="2"/>
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
@@ -28135,19 +28142,19 @@
       <c r="F175" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175" s="8">
         <v>0.18000000715255737</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175" s="8">
         <v>0.20800000429153442</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
       </c>
-      <c r="J175" s="2">
+      <c r="J175" s="8">
         <v>0.45291483402252197</v>
       </c>
-      <c r="K175" s="2">
+      <c r="K175" s="8">
         <v>0.40636706352233887</v>
       </c>
       <c r="L175" s="1">
@@ -28210,10 +28217,10 @@
       <c r="AE175" t="s">
         <v>345</v>
       </c>
-      <c r="AF175" s="1">
+      <c r="AF175" s="2">
         <v>38.941534339999897</v>
       </c>
-      <c r="AG175" s="1">
+      <c r="AG175" s="2">
         <v>-77.031227419999894</v>
       </c>
       <c r="AH175" s="1">
@@ -28296,19 +28303,19 @@
       <c r="F176" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G176" s="2">
+      <c r="G176" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H176" s="2">
+      <c r="H176" s="8">
         <v>1.4999985694885254E-2</v>
       </c>
       <c r="I176" s="1">
         <v>0</v>
       </c>
-      <c r="J176" s="2">
+      <c r="J176" s="8">
         <v>0.36666667461395264</v>
       </c>
-      <c r="K176" s="2">
+      <c r="K176" s="8">
         <v>0.42942941188812256</v>
       </c>
       <c r="L176" s="1">
@@ -28367,10 +28374,10 @@
       <c r="AE176" t="s">
         <v>354</v>
       </c>
-      <c r="AF176" s="1">
+      <c r="AF176" s="2">
         <v>38.8700917399999</v>
       </c>
-      <c r="AG176" s="1">
+      <c r="AG176" s="2">
         <v>-76.964356280000004</v>
       </c>
       <c r="AH176" s="1">
@@ -28449,19 +28456,19 @@
       <c r="F177" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G177" s="2">
+      <c r="G177" s="8">
         <v>0.38999998569488525</v>
       </c>
-      <c r="H177" s="2">
+      <c r="H177" s="8">
         <v>0.35600000619888306</v>
       </c>
       <c r="I177" s="1">
         <v>0</v>
       </c>
-      <c r="J177" s="2">
+      <c r="J177" s="8">
         <v>0.46987950801849365</v>
       </c>
-      <c r="K177" s="2">
+      <c r="K177" s="8">
         <v>0.4502447247505188</v>
       </c>
       <c r="L177" s="1">
@@ -28524,10 +28531,10 @@
       <c r="AE177" t="s">
         <v>347</v>
       </c>
-      <c r="AF177" s="1">
+      <c r="AF177" s="2">
         <v>38.935811209999898</v>
       </c>
-      <c r="AG177" s="1">
+      <c r="AG177" s="2">
         <v>-77.026432659999898</v>
       </c>
       <c r="AH177" s="1">
@@ -28610,19 +28617,19 @@
       <c r="F178" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G178" s="2">
+      <c r="G178" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H178" s="2">
+      <c r="H178" s="8">
         <v>1.3000011444091797E-2</v>
       </c>
       <c r="I178" s="1">
         <v>0</v>
       </c>
-      <c r="J178" s="2">
+      <c r="J178" s="8">
         <v>0.26229506731033325</v>
       </c>
-      <c r="K178" s="2">
+      <c r="K178" s="8">
         <v>0.31666666269302368</v>
       </c>
       <c r="L178" s="1">
@@ -28681,10 +28688,10 @@
       <c r="AE178" t="s">
         <v>424</v>
       </c>
-      <c r="AF178" s="1">
+      <c r="AF178" s="2">
         <v>38.877000000000002</v>
       </c>
-      <c r="AG178" s="1">
+      <c r="AG178" s="2">
         <v>-76.995580000000004</v>
       </c>
       <c r="AH178" s="1">
@@ -28765,15 +28772,15 @@
       <c r="F179" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2">
+      <c r="G179" s="8"/>
+      <c r="H179" s="8">
         <v>4.1000008583068848E-2</v>
       </c>
       <c r="I179" s="1">
         <v>0</v>
       </c>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2">
+      <c r="J179" s="8"/>
+      <c r="K179" s="8">
         <v>0.24263036251068115</v>
       </c>
       <c r="L179" s="1">
@@ -28820,10 +28827,10 @@
       <c r="AE179" t="s">
         <v>333</v>
       </c>
-      <c r="AF179" s="1">
+      <c r="AF179" s="2">
         <v>38.85566</v>
       </c>
-      <c r="AG179" s="1">
+      <c r="AG179" s="2">
         <v>-76.974549999999994</v>
       </c>
       <c r="AH179" s="1">
@@ -28890,15 +28897,15 @@
       <c r="F180" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2">
+      <c r="G180" s="8"/>
+      <c r="H180" s="8">
         <v>4.7999978065490723E-2</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
       </c>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2">
+      <c r="J180" s="8"/>
+      <c r="K180" s="8">
         <v>0.45714282989501953</v>
       </c>
       <c r="L180" s="1">
@@ -28943,10 +28950,10 @@
       <c r="AE180" t="s">
         <v>394</v>
       </c>
-      <c r="AF180" s="1">
+      <c r="AF180" s="2">
         <v>38.906562999999899</v>
       </c>
-      <c r="AG180" s="1">
+      <c r="AG180" s="2">
         <v>-76.932704999999899</v>
       </c>
       <c r="AH180" s="1">
@@ -29013,19 +29020,19 @@
       <c r="F181" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G181" s="8">
         <v>0.37999999523162842</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H181" s="8">
         <v>0.45899999141693115</v>
       </c>
       <c r="I181" s="1">
         <v>1</v>
       </c>
-      <c r="J181" s="2">
+      <c r="J181" s="8">
         <v>0.17226892709732056</v>
       </c>
-      <c r="K181" s="2">
+      <c r="K181" s="8">
         <v>0.34932535886764526</v>
       </c>
       <c r="L181" s="1">
@@ -29088,10 +29095,10 @@
       <c r="AE181" t="s">
         <v>401</v>
       </c>
-      <c r="AF181" s="1">
+      <c r="AF181" s="2">
         <v>38.943028999999903</v>
       </c>
-      <c r="AG181" s="1">
+      <c r="AG181" s="2">
         <v>-77.029196999999897</v>
       </c>
       <c r="AH181" s="1">
@@ -29174,19 +29181,19 @@
       <c r="F182" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G182" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182" s="8">
         <v>0</v>
       </c>
       <c r="I182" s="1">
         <v>0</v>
       </c>
-      <c r="J182" s="2">
+      <c r="J182" s="8">
         <v>0.41052627563476563</v>
       </c>
-      <c r="K182" s="2">
+      <c r="K182" s="8">
         <v>0.41525423526763916</v>
       </c>
       <c r="L182" s="1">
@@ -29243,10 +29250,10 @@
       <c r="AE182" t="s">
         <v>264</v>
       </c>
-      <c r="AF182" s="1">
+      <c r="AF182" s="2">
         <v>38.956859999999999</v>
       </c>
-      <c r="AG182" s="1">
+      <c r="AG182" s="2">
         <v>-77.010310000000004</v>
       </c>
       <c r="AH182" s="1">
@@ -29325,19 +29332,19 @@
       <c r="F183" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183" s="8">
         <v>0.50999999046325684</v>
       </c>
-      <c r="H183" s="2">
+      <c r="H183" s="8">
         <v>0.53200000524520874</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
       </c>
-      <c r="J183" s="2">
+      <c r="J183" s="8">
         <v>6.0240983963012695E-2</v>
       </c>
-      <c r="K183" s="2"/>
+      <c r="K183" s="8"/>
       <c r="L183" s="1">
         <v>0</v>
       </c>
@@ -29394,10 +29401,10 @@
       <c r="AE183" t="s">
         <v>348</v>
       </c>
-      <c r="AF183" s="1">
+      <c r="AF183" s="2">
         <v>38.912391149999898</v>
       </c>
-      <c r="AG183" s="1">
+      <c r="AG183" s="2">
         <v>-77.039662140000004</v>
       </c>
       <c r="AH183" s="1">
@@ -29474,19 +29481,19 @@
       <c r="F184" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G184" s="2">
+      <c r="G184" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
       <c r="I184" s="1">
         <v>0</v>
       </c>
-      <c r="J184" s="2">
+      <c r="J184" s="8">
         <v>0.18382352590560913</v>
       </c>
-      <c r="K184" s="2">
+      <c r="K184" s="8">
         <v>0.20952379703521729</v>
       </c>
       <c r="L184" s="1">
@@ -29543,10 +29550,10 @@
       <c r="AE184" t="s">
         <v>349</v>
       </c>
-      <c r="AF184" s="1">
+      <c r="AF184" s="2">
         <v>38.862851990000003</v>
       </c>
-      <c r="AG184" s="1">
+      <c r="AG184" s="2">
         <v>-76.993604259999898</v>
       </c>
       <c r="AH184" s="1">
@@ -29625,19 +29632,19 @@
       <c r="F185" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G185" s="2">
+      <c r="G185" s="8">
         <v>0.31999999284744263</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="8">
         <v>0.30900001525878906</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
       </c>
-      <c r="J185" s="2">
+      <c r="J185" s="8">
         <v>6.8548381328582764E-2</v>
       </c>
-      <c r="K185" s="2">
+      <c r="K185" s="8">
         <v>4.2345285415649414E-2</v>
       </c>
       <c r="L185" s="1">
@@ -29698,10 +29705,10 @@
       <c r="AE185" t="s">
         <v>266</v>
       </c>
-      <c r="AF185" s="1">
+      <c r="AF185" s="2">
         <v>38.897564979999899</v>
       </c>
-      <c r="AG185" s="1">
+      <c r="AG185" s="2">
         <v>-76.993183040000005</v>
       </c>
       <c r="AH185" s="1">
@@ -29784,19 +29791,19 @@
       <c r="F186" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G186" s="8">
         <v>0.42000001668930054</v>
       </c>
-      <c r="H186" s="2">
+      <c r="H186" s="8">
         <v>0.50300002098083496</v>
       </c>
       <c r="I186" s="1">
         <v>1</v>
       </c>
-      <c r="J186" s="2">
+      <c r="J186" s="8">
         <v>0.26328504085540771</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K186" s="8">
         <v>0.18471336364746094</v>
       </c>
       <c r="L186" s="1">
@@ -29859,10 +29866,10 @@
       <c r="AE186" t="s">
         <v>384</v>
       </c>
-      <c r="AF186" s="1">
+      <c r="AF186" s="2">
         <v>38.907469499999898</v>
       </c>
-      <c r="AG186" s="1">
+      <c r="AG186" s="2">
         <v>-77.052320999999907</v>
       </c>
       <c r="AH186" s="1">
@@ -29945,19 +29952,19 @@
       <c r="F187" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G187" s="2">
+      <c r="G187" s="8">
         <v>0.61000001430511475</v>
       </c>
-      <c r="H187" s="2">
+      <c r="H187" s="8">
         <v>0.57899999618530273</v>
       </c>
       <c r="I187" s="1">
         <v>1</v>
       </c>
-      <c r="J187" s="2">
+      <c r="J187" s="8">
         <v>0.15423727035522461</v>
       </c>
-      <c r="K187" s="2">
+      <c r="K187" s="8">
         <v>0.11643832921981812</v>
       </c>
       <c r="L187" s="1">
@@ -30018,10 +30025,10 @@
       <c r="AE187" t="s">
         <v>404</v>
       </c>
-      <c r="AF187" s="1">
+      <c r="AF187" s="2">
         <v>38.898124119999899</v>
       </c>
-      <c r="AG187" s="1">
+      <c r="AG187" s="2">
         <v>-77.048186470000005</v>
       </c>
       <c r="AH187" s="1">
@@ -30104,19 +30111,19 @@
       <c r="F188" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G188" s="2">
+      <c r="G188" s="8">
         <v>0.58000004291534424</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="8">
         <v>0.60100001096725464</v>
       </c>
       <c r="I188" s="1">
         <v>1</v>
       </c>
-      <c r="J188" s="2">
+      <c r="J188" s="8">
         <v>0.49830508232116699</v>
       </c>
-      <c r="K188" s="2">
+      <c r="K188" s="8">
         <v>0.42521995306015015</v>
       </c>
       <c r="L188" s="1">
@@ -30179,10 +30186,10 @@
       <c r="AE188" t="s">
         <v>351</v>
       </c>
-      <c r="AF188" s="1">
+      <c r="AF188" s="2">
         <v>38.910618700000001</v>
       </c>
-      <c r="AG188" s="1">
+      <c r="AG188" s="2">
         <v>-77.024882469999895</v>
       </c>
       <c r="AH188" s="1">
@@ -30265,19 +30272,19 @@
       <c r="F189" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G189" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189" s="8">
         <v>1.0999977588653564E-2</v>
       </c>
       <c r="I189" s="1">
         <v>0</v>
       </c>
-      <c r="J189" s="2">
+      <c r="J189" s="8">
         <v>0.48809522390365601</v>
       </c>
-      <c r="K189" s="2">
+      <c r="K189" s="8">
         <v>0.3601108193397522</v>
       </c>
       <c r="L189" s="1">
@@ -30334,10 +30341,10 @@
       <c r="AE189" t="s">
         <v>265</v>
       </c>
-      <c r="AF189" s="1">
+      <c r="AF189" s="2">
         <v>38.887129999999999</v>
       </c>
-      <c r="AG189" s="1">
+      <c r="AG189" s="2">
         <v>-76.946299999999994</v>
       </c>
       <c r="AH189" s="1">
@@ -30416,19 +30423,19 @@
       <c r="F190" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G190" s="2">
+      <c r="G190" s="8">
         <v>0.25999999046325684</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190" s="8">
         <v>0.29400002956390381</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
       </c>
-      <c r="J190" s="2">
+      <c r="J190" s="8">
         <v>0.27906978130340576</v>
       </c>
-      <c r="K190" s="2">
+      <c r="K190" s="8">
         <v>0.21468925476074219</v>
       </c>
       <c r="L190" s="1">
@@ -30489,10 +30496,10 @@
       <c r="AE190" t="s">
         <v>276</v>
       </c>
-      <c r="AF190" s="1">
+      <c r="AF190" s="2">
         <v>38.96387</v>
       </c>
-      <c r="AG190" s="1">
+      <c r="AG190" s="2">
         <v>-77.007360000000006</v>
       </c>
       <c r="AH190" s="1">
@@ -30575,19 +30582,19 @@
       <c r="F191" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G191" s="2">
+      <c r="G191" s="8">
         <v>0.22000002861022949</v>
       </c>
-      <c r="H191" s="2">
+      <c r="H191" s="8">
         <v>0.26700001955032349</v>
       </c>
       <c r="I191" s="1">
         <v>0</v>
       </c>
-      <c r="J191" s="2">
+      <c r="J191" s="8">
         <v>0.18553459644317627</v>
       </c>
-      <c r="K191" s="2">
+      <c r="K191" s="8">
         <v>0.13333332538604736</v>
       </c>
       <c r="L191" s="1">
@@ -30650,10 +30657,10 @@
       <c r="AE191" t="s">
         <v>352</v>
       </c>
-      <c r="AF191" s="1">
+      <c r="AF191" s="2">
         <v>38.984603280000002</v>
       </c>
-      <c r="AG191" s="1">
+      <c r="AG191" s="2">
         <v>-77.033995230000002</v>
       </c>
       <c r="AH191" s="1">
@@ -30736,19 +30743,19 @@
       <c r="F192" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G192" s="2">
+      <c r="G192" s="8">
         <v>0.61000001430511475</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192" s="8">
         <v>0.53200000524520874</v>
       </c>
       <c r="I192" s="1">
         <v>1</v>
       </c>
-      <c r="J192" s="2">
+      <c r="J192" s="8">
         <v>0.16949152946472168</v>
       </c>
-      <c r="K192" s="2">
+      <c r="K192" s="8">
         <v>0.18719214200973511</v>
       </c>
       <c r="L192" s="1">
@@ -30809,10 +30816,10 @@
       <c r="AE192" t="s">
         <v>423</v>
       </c>
-      <c r="AF192" s="1">
+      <c r="AF192" s="2">
         <v>38.938600000000001</v>
       </c>
-      <c r="AG192" s="1">
+      <c r="AG192" s="2">
         <v>-76.988910000000004</v>
       </c>
       <c r="AH192" s="1">
@@ -30895,19 +30902,19 @@
       <c r="F193" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G193" s="2">
+      <c r="G193" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H193" s="2">
+      <c r="H193" s="8">
         <v>2.2000014781951904E-2</v>
       </c>
       <c r="I193" s="1">
         <v>0</v>
       </c>
-      <c r="J193" s="2">
+      <c r="J193" s="8">
         <v>0.22525596618652344</v>
       </c>
-      <c r="K193" s="2">
+      <c r="K193" s="8">
         <v>0.30072462558746338</v>
       </c>
       <c r="L193" s="1">
@@ -30970,10 +30977,10 @@
       <c r="AE193" t="s">
         <v>353</v>
       </c>
-      <c r="AF193" s="1">
+      <c r="AF193" s="2">
         <v>38.835980540000001</v>
       </c>
-      <c r="AG193" s="1">
+      <c r="AG193" s="2">
         <v>-77.000194999999906</v>
       </c>
       <c r="AH193" s="1">
@@ -31056,19 +31063,19 @@
       <c r="F194" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G194" s="2">
+      <c r="G194" s="8">
         <v>4.0000021457672119E-2</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H194" s="8">
         <v>9.8999977111816406E-2</v>
       </c>
       <c r="I194" s="1">
         <v>0</v>
       </c>
-      <c r="J194" s="2">
+      <c r="J194" s="8">
         <v>0.26181817054748535</v>
       </c>
-      <c r="K194" s="2">
+      <c r="K194" s="8">
         <v>0.22924900054931641</v>
       </c>
       <c r="L194" s="1">
@@ -31129,10 +31136,10 @@
       <c r="AE194" t="s">
         <v>357</v>
       </c>
-      <c r="AF194" s="1">
+      <c r="AF194" s="2">
         <v>38.893554039999898</v>
       </c>
-      <c r="AG194" s="1">
+      <c r="AG194" s="2">
         <v>-76.938468639999897</v>
       </c>
       <c r="AH194" s="1">
@@ -31213,19 +31220,19 @@
       <c r="F195" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G195" s="2">
-        <v>0</v>
-      </c>
-      <c r="H195" s="2">
+      <c r="G195" s="8">
+        <v>0</v>
+      </c>
+      <c r="H195" s="8">
         <v>1.4999985694885254E-2</v>
       </c>
       <c r="I195" s="1">
         <v>0</v>
       </c>
-      <c r="J195" s="2">
+      <c r="J195" s="8">
         <v>0.33333331346511841</v>
       </c>
-      <c r="K195" s="2">
+      <c r="K195" s="8">
         <v>0.20679014921188354</v>
       </c>
       <c r="L195" s="1">
@@ -31284,10 +31291,10 @@
       <c r="AE195" t="s">
         <v>270</v>
       </c>
-      <c r="AF195" s="1">
+      <c r="AF195" s="2">
         <v>38.841520000000003</v>
       </c>
-      <c r="AG195" s="1">
+      <c r="AG195" s="2">
         <v>-76.994100000000003</v>
       </c>
       <c r="AH195" s="1">
@@ -31368,19 +31375,19 @@
       <c r="F196" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G196" s="2">
+      <c r="G196" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H196" s="2">
+      <c r="H196" s="8">
         <v>1.5999972820281982E-2</v>
       </c>
       <c r="I196" s="1">
         <v>0</v>
       </c>
-      <c r="J196" s="2">
+      <c r="J196" s="8">
         <v>0.26408451795578003</v>
       </c>
-      <c r="K196" s="2">
+      <c r="K196" s="8">
         <v>0.30980390310287476</v>
       </c>
       <c r="L196" s="1">
@@ -31441,10 +31448,10 @@
       <c r="AE196" t="s">
         <v>390</v>
       </c>
-      <c r="AF196" s="1">
+      <c r="AF196" s="2">
         <v>38.883894410000003</v>
       </c>
-      <c r="AG196" s="1">
+      <c r="AG196" s="2">
         <v>-76.95315884</v>
       </c>
       <c r="AH196" s="1">
@@ -31525,19 +31532,19 @@
       <c r="F197" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G197" s="2">
+      <c r="G197" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H197" s="2">
+      <c r="H197" s="8">
         <v>2.7000010013580322E-2</v>
       </c>
       <c r="I197" s="1">
         <v>0</v>
       </c>
-      <c r="J197" s="2">
+      <c r="J197" s="8">
         <v>0.13148790597915649</v>
       </c>
-      <c r="K197" s="2">
+      <c r="K197" s="8">
         <v>0.15192306041717529</v>
       </c>
       <c r="L197" s="1">
@@ -31596,10 +31603,10 @@
       <c r="AE197" t="s">
         <v>355</v>
       </c>
-      <c r="AF197" s="1">
+      <c r="AF197" s="2">
         <v>38.8592721099999</v>
       </c>
-      <c r="AG197" s="1">
+      <c r="AG197" s="2">
         <v>-76.96849023</v>
       </c>
       <c r="AH197" s="1">
@@ -31680,19 +31687,19 @@
       <c r="F198" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G198" s="2">
+      <c r="G198" s="8">
         <v>0.3399999737739563</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198" s="8">
         <v>0.34899997711181641</v>
       </c>
       <c r="I198" s="1">
         <v>0</v>
       </c>
-      <c r="J198" s="2">
+      <c r="J198" s="8">
         <v>4.3062210083007813E-2</v>
       </c>
-      <c r="K198" s="2">
+      <c r="K198" s="8">
         <v>3.9080440998077393E-2</v>
       </c>
       <c r="L198" s="1">
@@ -31755,10 +31762,10 @@
       <c r="AE198" t="s">
         <v>356</v>
       </c>
-      <c r="AF198" s="1">
+      <c r="AF198" s="2">
         <v>38.923044650000001</v>
       </c>
-      <c r="AG198" s="1">
+      <c r="AG198" s="2">
         <v>-77.079073800000003</v>
       </c>
       <c r="AH198" s="1">
@@ -31841,19 +31848,19 @@
       <c r="F199" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G199" s="2">
+      <c r="G199" s="8">
         <v>0.12999999523162842</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199" s="8">
         <v>0.15799999237060547</v>
       </c>
       <c r="I199" s="1">
         <v>0</v>
       </c>
-      <c r="J199" s="2">
+      <c r="J199" s="8">
         <v>0.33806145191192627</v>
       </c>
-      <c r="K199" s="2">
+      <c r="K199" s="8">
         <v>0.27378189563751221</v>
       </c>
       <c r="L199" s="1">
@@ -31916,10 +31923,10 @@
       <c r="AE199" t="s">
         <v>391</v>
       </c>
-      <c r="AF199" s="1">
+      <c r="AF199" s="2">
         <v>38.896297699999899</v>
       </c>
-      <c r="AG199" s="1">
+      <c r="AG199" s="2">
         <v>-77.000004379999893</v>
       </c>
       <c r="AH199" s="1">
@@ -32002,19 +32009,19 @@
       <c r="F200" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G200" s="2">
+      <c r="G200" s="8">
         <v>0.39999997615814209</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200" s="8">
         <v>0.40600001811981201</v>
       </c>
       <c r="I200" s="1">
         <v>1</v>
       </c>
-      <c r="J200" s="2">
+      <c r="J200" s="8">
         <v>0.42760181427001953</v>
       </c>
-      <c r="K200" s="2">
+      <c r="K200" s="8">
         <v>0.44230771064758301</v>
       </c>
       <c r="L200" s="1">
@@ -32077,10 +32084,10 @@
       <c r="AE200" t="s">
         <v>358</v>
       </c>
-      <c r="AF200" s="1">
+      <c r="AF200" s="2">
         <v>38.975042870000003</v>
       </c>
-      <c r="AG200" s="1">
+      <c r="AG200" s="2">
         <v>-77.022794930000003</v>
       </c>
       <c r="AH200" s="1">
@@ -32163,15 +32170,15 @@
       <c r="F201" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2">
+      <c r="G201" s="8"/>
+      <c r="H201" s="8">
         <v>1.8000006675720215E-2</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
       </c>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2">
+      <c r="J201" s="8"/>
+      <c r="K201" s="8">
         <v>0.20467835664749146</v>
       </c>
       <c r="L201" s="1">
@@ -32218,10 +32225,10 @@
       <c r="AE201" t="s">
         <v>311</v>
       </c>
-      <c r="AF201" s="1">
+      <c r="AF201" s="2">
         <v>38.920699999999997</v>
       </c>
-      <c r="AG201" s="1">
+      <c r="AG201" s="2">
         <v>-76.972179999999994</v>
       </c>
       <c r="AH201" s="1">
@@ -32288,19 +32295,19 @@
       <c r="F202" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G202" s="2">
+      <c r="G202" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202" s="8">
         <v>4.1999995708465576E-2</v>
       </c>
       <c r="I202" s="1">
         <v>0</v>
       </c>
-      <c r="J202" s="2">
+      <c r="J202" s="8">
         <v>0.27696079015731812</v>
       </c>
-      <c r="K202" s="2">
+      <c r="K202" s="8">
         <v>0.27872860431671143</v>
       </c>
       <c r="L202" s="1">
@@ -32361,10 +32368,10 @@
       <c r="AE202" t="s">
         <v>359</v>
       </c>
-      <c r="AF202" s="1">
+      <c r="AF202" s="2">
         <v>38.90127897</v>
       </c>
-      <c r="AG202" s="1">
+      <c r="AG202" s="2">
         <v>-76.952110910000002</v>
       </c>
       <c r="AH202" s="1">
@@ -32445,19 +32452,19 @@
       <c r="F203" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G203" s="2">
+      <c r="G203" s="8">
         <v>0.43000000715255737</v>
       </c>
-      <c r="H203" s="2">
+      <c r="H203" s="8">
         <v>0.48600000143051147</v>
       </c>
       <c r="I203" s="1">
         <v>1</v>
       </c>
-      <c r="J203" s="2">
+      <c r="J203" s="8">
         <v>0.45588231086730957</v>
       </c>
-      <c r="K203" s="2">
+      <c r="K203" s="8">
         <v>0.41853034496307373</v>
       </c>
       <c r="L203" s="1">
@@ -32520,10 +32527,10 @@
       <c r="AE203" t="s">
         <v>360</v>
       </c>
-      <c r="AF203" s="1">
+      <c r="AF203" s="2">
         <v>38.903496339999897</v>
       </c>
-      <c r="AG203" s="1">
+      <c r="AG203" s="2">
         <v>-77.028430029999896</v>
       </c>
       <c r="AH203" s="1">
@@ -32606,19 +32613,19 @@
       <c r="F204" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G204" s="2">
+      <c r="G204" s="8">
         <v>9.9999904632568359E-3</v>
       </c>
-      <c r="H204" s="2">
+      <c r="H204" s="8">
         <v>1.8000006675720215E-2</v>
       </c>
       <c r="I204" s="1">
         <v>0</v>
       </c>
-      <c r="J204" s="2">
+      <c r="J204" s="8">
         <v>0.45316457748413086</v>
       </c>
-      <c r="K204" s="2">
+      <c r="K204" s="8">
         <v>0.43298971652984619</v>
       </c>
       <c r="L204" s="1">
@@ -32677,10 +32684,10 @@
       <c r="AE204" t="s">
         <v>272</v>
       </c>
-      <c r="AF204" s="1">
+      <c r="AF204" s="2">
         <v>38.862279999999998</v>
       </c>
-      <c r="AG204" s="1">
+      <c r="AG204" s="2">
         <v>-76.993690000000001</v>
       </c>
       <c r="AH204" s="1">
@@ -32761,15 +32768,15 @@
       <c r="F205" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="8"/>
       <c r="I205" s="1">
         <v>0</v>
       </c>
-      <c r="J205" s="2">
+      <c r="J205" s="8">
         <v>0.35314685106277466</v>
       </c>
-      <c r="K205" s="2"/>
+      <c r="K205" s="8"/>
       <c r="L205" s="1"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -32804,8 +32811,8 @@
       <c r="AE205" t="s">
         <v>233</v>
       </c>
-      <c r="AF205" s="1"/>
-      <c r="AG205" s="1"/>
+      <c r="AF205" s="2"/>
+      <c r="AG205" s="2"/>
       <c r="AH205" s="1"/>
       <c r="AI205" s="1"/>
       <c r="AJ205" s="1"/>
@@ -32846,19 +32853,19 @@
       <c r="F206" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G206" s="8">
         <v>0.35000002384185791</v>
       </c>
-      <c r="H206" s="2">
+      <c r="H206" s="8">
         <v>0.33399999141693115</v>
       </c>
       <c r="I206" s="1">
         <v>0</v>
       </c>
-      <c r="J206" s="2">
+      <c r="J206" s="8">
         <v>0.4486691951751709</v>
       </c>
-      <c r="K206" s="2">
+      <c r="K206" s="8">
         <v>0.44918996095657349</v>
       </c>
       <c r="L206" s="1">
@@ -32921,10 +32928,10 @@
       <c r="AE206" t="s">
         <v>361</v>
       </c>
-      <c r="AF206" s="1">
+      <c r="AF206" s="2">
         <v>38.953968690000004</v>
       </c>
-      <c r="AG206" s="1">
+      <c r="AG206" s="2">
         <v>-77.025071580000002</v>
       </c>
       <c r="AH206" s="1">
@@ -33007,19 +33014,19 @@
       <c r="F207" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G207" s="2">
+      <c r="G207" s="8">
         <v>0.51999998092651367</v>
       </c>
-      <c r="H207" s="2">
+      <c r="H207" s="8">
         <v>0.47399997711181641</v>
       </c>
       <c r="I207" s="1">
         <v>1</v>
       </c>
-      <c r="J207" s="2">
+      <c r="J207" s="8">
         <v>0.3935742974281311</v>
       </c>
-      <c r="K207" s="2">
+      <c r="K207" s="8">
         <v>0.46678966283798218</v>
       </c>
       <c r="L207" s="1">
@@ -33082,10 +33089,10 @@
       <c r="AE207" t="s">
         <v>362</v>
       </c>
-      <c r="AF207" s="1">
+      <c r="AF207" s="2">
         <v>38.929198569999897</v>
       </c>
-      <c r="AG207" s="1">
+      <c r="AG207" s="2">
         <v>-77.029443299999897</v>
       </c>
       <c r="AH207" s="1">
@@ -33168,19 +33175,19 @@
       <c r="F208" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G208" s="8">
         <v>2.9999971389770508E-2</v>
       </c>
-      <c r="H208" s="2">
+      <c r="H208" s="8">
         <v>1.8999993801116943E-2</v>
       </c>
       <c r="I208" s="1">
         <v>0</v>
       </c>
-      <c r="J208" s="2">
+      <c r="J208" s="8">
         <v>0.15051019191741943</v>
       </c>
-      <c r="K208" s="2">
+      <c r="K208" s="8">
         <v>0.17148762941360474</v>
       </c>
       <c r="L208" s="1">
@@ -33241,10 +33248,10 @@
       <c r="AE208" t="s">
         <v>363</v>
       </c>
-      <c r="AF208" s="1">
+      <c r="AF208" s="2">
         <v>38.847636440000002</v>
       </c>
-      <c r="AG208" s="1">
+      <c r="AG208" s="2">
         <v>-76.980313229999894</v>
       </c>
       <c r="AH208" s="1">
@@ -33325,19 +33332,19 @@
       <c r="F209" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G209" s="2">
+      <c r="G209" s="8">
         <v>0.37999999523162842</v>
       </c>
-      <c r="H209" s="2">
+      <c r="H209" s="8">
         <v>0.36799997091293335</v>
       </c>
       <c r="I209" s="1">
         <v>0</v>
       </c>
-      <c r="J209" s="2">
+      <c r="J209" s="8">
         <v>0.24324321746826172</v>
       </c>
-      <c r="K209" s="2">
+      <c r="K209" s="8">
         <v>0.22770398855209351</v>
       </c>
       <c r="L209" s="1">
@@ -33398,10 +33405,10 @@
       <c r="AE209" t="s">
         <v>277</v>
       </c>
-      <c r="AF209" s="1">
+      <c r="AF209" s="2">
         <v>38.906419999999997</v>
       </c>
-      <c r="AG209" s="1">
+      <c r="AG209" s="2">
         <v>-77.00094</v>
       </c>
       <c r="AH209" s="1">
@@ -33484,15 +33491,15 @@
       <c r="F210" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2">
+      <c r="G210" s="8"/>
+      <c r="H210" s="8">
         <v>0.41200000047683716</v>
       </c>
       <c r="I210" s="1">
         <v>1</v>
       </c>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2">
+      <c r="J210" s="8"/>
+      <c r="K210" s="8">
         <v>0.1902654767036438</v>
       </c>
       <c r="L210" s="1">
@@ -33539,10 +33546,10 @@
       <c r="AE210" t="s">
         <v>324</v>
       </c>
-      <c r="AF210" s="1">
+      <c r="AF210" s="2">
         <v>38.901130000000002</v>
       </c>
-      <c r="AG210" s="1">
+      <c r="AG210" s="2">
         <v>-76.971220000000002</v>
       </c>
       <c r="AH210" s="1">
@@ -33609,19 +33616,19 @@
       <c r="F211" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G211" s="2">
+      <c r="G211" s="8">
         <v>0.24000000953674316</v>
       </c>
-      <c r="H211" s="2">
+      <c r="H211" s="8">
         <v>0.28200000524520874</v>
       </c>
       <c r="I211" s="1">
         <v>0</v>
       </c>
-      <c r="J211" s="2">
+      <c r="J211" s="8">
         <v>0.45785439014434814</v>
       </c>
-      <c r="K211" s="2">
+      <c r="K211" s="8">
         <v>0.32684826850891113</v>
       </c>
       <c r="L211" s="1">
@@ -33684,10 +33691,10 @@
       <c r="AE211" t="s">
         <v>364</v>
       </c>
-      <c r="AF211" s="1">
+      <c r="AF211" s="2">
         <v>38.881084360000003</v>
       </c>
-      <c r="AG211" s="1">
+      <c r="AG211" s="2">
         <v>-76.992041659999899</v>
       </c>
       <c r="AH211" s="1">
@@ -33770,15 +33777,15 @@
       <c r="F212" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2">
+      <c r="G212" s="8"/>
+      <c r="H212" s="8">
         <v>0.50900000333786011</v>
       </c>
       <c r="I212" s="1">
         <v>1</v>
       </c>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2">
+      <c r="J212" s="8"/>
+      <c r="K212" s="8">
         <v>0.20467835664749146</v>
       </c>
       <c r="L212" s="1">
@@ -33827,10 +33834,10 @@
       <c r="AE212" t="s">
         <v>365</v>
       </c>
-      <c r="AF212" s="1">
+      <c r="AF212" s="2">
         <v>38.876796450000001</v>
       </c>
-      <c r="AG212" s="1">
+      <c r="AG212" s="2">
         <v>-76.999243999999905</v>
       </c>
       <c r="AH212" s="1">
@@ -33897,19 +33904,19 @@
       <c r="F213" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G213" s="2">
+      <c r="G213" s="8">
         <v>6.0000002384185791E-2</v>
       </c>
-      <c r="H213" s="2">
+      <c r="H213" s="8">
         <v>7.0999979972839355E-2</v>
       </c>
       <c r="I213" s="1">
         <v>0</v>
       </c>
-      <c r="J213" s="2">
+      <c r="J213" s="8">
         <v>0.25161290168762207</v>
       </c>
-      <c r="K213" s="2">
+      <c r="K213" s="8">
         <v>0.24611973762512207</v>
       </c>
       <c r="L213" s="1">
@@ -33972,10 +33979,10 @@
       <c r="AE213" t="s">
         <v>366</v>
       </c>
-      <c r="AF213" s="1">
+      <c r="AF213" s="2">
         <v>38.90419198</v>
       </c>
-      <c r="AG213" s="1">
+      <c r="AG213" s="2">
         <v>-77.013915690000005</v>
       </c>
       <c r="AH213" s="1">
@@ -34058,15 +34065,15 @@
       <c r="F214" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2">
+      <c r="G214" s="8"/>
+      <c r="H214" s="8">
         <v>3.3999979496002197E-2</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
       </c>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2">
+      <c r="J214" s="8"/>
+      <c r="K214" s="8">
         <v>0.43103450536727905</v>
       </c>
       <c r="L214" s="1">
@@ -34113,10 +34120,10 @@
       <c r="AE214" t="s">
         <v>318</v>
       </c>
-      <c r="AF214" s="1">
+      <c r="AF214" s="2">
         <v>38.884120000000003</v>
       </c>
-      <c r="AG214" s="1">
+      <c r="AG214" s="2">
         <v>-77.019540000000006</v>
       </c>
       <c r="AH214" s="1">
@@ -34183,19 +34190,19 @@
       <c r="F215" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G215" s="8">
         <v>0.44999998807907104</v>
       </c>
-      <c r="H215" s="2">
+      <c r="H215" s="8">
         <v>0.56400001049041748</v>
       </c>
       <c r="I215" s="1">
         <v>1</v>
       </c>
-      <c r="J215" s="2">
+      <c r="J215" s="8">
         <v>4.3715834617614746E-2</v>
       </c>
-      <c r="K215" s="2">
+      <c r="K215" s="8">
         <v>3.0386745929718018E-2</v>
       </c>
       <c r="L215" s="1">
@@ -34256,10 +34263,10 @@
       <c r="AE215" t="s">
         <v>247</v>
       </c>
-      <c r="AF215" s="1">
+      <c r="AF215" s="2">
         <v>38.953890000000001</v>
       </c>
-      <c r="AG215" s="1">
+      <c r="AG215" s="2">
         <v>-77.013819999999996</v>
       </c>
       <c r="AH215" s="1">
@@ -34342,19 +34349,19 @@
       <c r="F216" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G216" s="2">
+      <c r="G216" s="8">
         <v>0.42000001668930054</v>
       </c>
-      <c r="H216" s="2">
+      <c r="H216" s="8">
         <v>0.49299997091293335</v>
       </c>
       <c r="I216" s="1">
         <v>1</v>
       </c>
-      <c r="J216" s="2">
+      <c r="J216" s="8">
         <v>0.23026317358016968</v>
       </c>
-      <c r="K216" s="2">
+      <c r="K216" s="8">
         <v>0.15223878622055054</v>
       </c>
       <c r="L216" s="1">
@@ -34415,10 +34422,10 @@
       <c r="AE216" t="s">
         <v>247</v>
       </c>
-      <c r="AF216" s="1">
+      <c r="AF216" s="2">
         <v>38.953890000000001</v>
       </c>
-      <c r="AG216" s="1">
+      <c r="AG216" s="2">
         <v>-77.013819999999996</v>
       </c>
       <c r="AH216" s="1">
@@ -34501,15 +34508,15 @@
       <c r="F217" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2">
+      <c r="G217" s="8"/>
+      <c r="H217" s="8">
         <v>0.14499998092651367</v>
       </c>
       <c r="I217" s="1">
         <v>0</v>
       </c>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2">
+      <c r="J217" s="8"/>
+      <c r="K217" s="8">
         <v>0.45454543828964233</v>
       </c>
       <c r="L217" s="1">
@@ -34556,10 +34563,10 @@
       <c r="AE217" t="s">
         <v>296</v>
       </c>
-      <c r="AF217" s="1">
+      <c r="AF217" s="2">
         <v>38.927860000000003</v>
       </c>
-      <c r="AG217" s="1">
+      <c r="AG217" s="2">
         <v>-76.998670000000004</v>
       </c>
       <c r="AH217" s="1">
@@ -34626,19 +34633,19 @@
       <c r="F218" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G218" s="2">
+      <c r="G218" s="8">
         <v>1.9999980926513672E-2</v>
       </c>
-      <c r="H218" s="2">
+      <c r="H218" s="8">
         <v>1.3999998569488525E-2</v>
       </c>
       <c r="I218" s="1">
         <v>0</v>
       </c>
-      <c r="J218" s="2">
+      <c r="J218" s="8">
         <v>0.33731341361999512</v>
       </c>
-      <c r="K218" s="2">
+      <c r="K218" s="8">
         <v>0.31046932935714722</v>
       </c>
       <c r="L218" s="1">
@@ -34697,10 +34704,10 @@
       <c r="AE218" t="s">
         <v>267</v>
       </c>
-      <c r="AF218" s="1">
+      <c r="AF218" s="2">
         <v>38.916420000000002</v>
       </c>
-      <c r="AG218" s="1">
+      <c r="AG218" s="2">
         <v>-76.973789999999994</v>
       </c>
       <c r="AH218" s="1">
@@ -34781,19 +34788,19 @@
       <c r="F219" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G219" s="8">
         <v>0.62999999523162842</v>
       </c>
-      <c r="H219" s="2">
+      <c r="H219" s="8">
         <v>0.64100003242492676</v>
       </c>
       <c r="I219" s="1">
         <v>1</v>
       </c>
-      <c r="J219" s="2">
+      <c r="J219" s="8">
         <v>4.1666686534881592E-2</v>
       </c>
-      <c r="K219" s="2">
+      <c r="K219" s="8">
         <v>3.8528919219970703E-2</v>
       </c>
       <c r="L219" s="1">
@@ -34854,10 +34861,10 @@
       <c r="AE219" t="s">
         <v>415</v>
       </c>
-      <c r="AF219" s="1">
+      <c r="AF219" s="2">
         <v>38.941229999999997</v>
       </c>
-      <c r="AG219" s="1">
+      <c r="AG219" s="2">
         <v>-77.003680000000003</v>
       </c>
       <c r="AH219" s="1">
@@ -34940,19 +34947,19 @@
       <c r="F220" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G220" s="2">
+      <c r="G220" s="8">
         <v>0.25999999046325684</v>
       </c>
-      <c r="H220" s="2">
+      <c r="H220" s="8">
         <v>0.32099997997283936</v>
       </c>
       <c r="I220" s="1">
         <v>0</v>
       </c>
-      <c r="J220" s="2">
+      <c r="J220" s="8">
         <v>0.19599997997283936</v>
       </c>
-      <c r="K220" s="2">
+      <c r="K220" s="8">
         <v>0.19954127073287964</v>
       </c>
       <c r="L220" s="1">
@@ -35013,10 +35020,10 @@
       <c r="AE220" t="s">
         <v>367</v>
       </c>
-      <c r="AF220" s="1">
+      <c r="AF220" s="2">
         <v>38.883467009999897</v>
       </c>
-      <c r="AG220" s="1">
+      <c r="AG220" s="2">
         <v>-76.989996770000005</v>
       </c>
       <c r="AH220" s="1">
@@ -35099,19 +35106,19 @@
       <c r="F221" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G221" s="2">
+      <c r="G221" s="8">
         <v>0.44999998807907104</v>
       </c>
-      <c r="H221" s="2">
+      <c r="H221" s="8">
         <v>0.47299998998641968</v>
       </c>
       <c r="I221" s="1">
         <v>1</v>
       </c>
-      <c r="J221" s="2">
+      <c r="J221" s="8">
         <v>0.41947567462921143</v>
       </c>
-      <c r="K221" s="2">
+      <c r="K221" s="8">
         <v>0.37460315227508545</v>
       </c>
       <c r="L221" s="1">
@@ -35174,10 +35181,10 @@
       <c r="AE221" t="s">
         <v>369</v>
       </c>
-      <c r="AF221" s="1">
+      <c r="AF221" s="2">
         <v>38.951367410000003</v>
       </c>
-      <c r="AG221" s="1">
+      <c r="AG221" s="2">
         <v>-77.032253060000002</v>
       </c>
       <c r="AH221" s="1">
@@ -35260,19 +35267,19 @@
       <c r="F222" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G222" s="2">
+      <c r="G222" s="8">
         <v>5.0000011920928955E-2</v>
       </c>
-      <c r="H222" s="2">
+      <c r="H222" s="8">
         <v>9.7000002861022949E-2</v>
       </c>
       <c r="I222" s="1">
         <v>0</v>
       </c>
-      <c r="J222" s="2">
+      <c r="J222" s="8">
         <v>0.21382290124893188</v>
       </c>
-      <c r="K222" s="2">
+      <c r="K222" s="8">
         <v>0.23987537622451782</v>
       </c>
       <c r="L222" s="1">
@@ -35333,10 +35340,10 @@
       <c r="AE222" t="s">
         <v>368</v>
       </c>
-      <c r="AF222" s="1">
+      <c r="AF222" s="2">
         <v>38.904117739999897</v>
       </c>
-      <c r="AG222" s="1">
+      <c r="AG222" s="2">
         <v>-76.988500770000002</v>
       </c>
       <c r="AH222" s="1">
@@ -35417,19 +35424,19 @@
       <c r="F223" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G223" s="2">
+      <c r="G223" s="8">
         <v>0.20999997854232788</v>
       </c>
-      <c r="H223" s="2">
+      <c r="H223" s="8">
         <v>0.24299997091293335</v>
       </c>
       <c r="I223" s="1">
         <v>0</v>
       </c>
-      <c r="J223" s="2">
+      <c r="J223" s="8">
         <v>0.38857144117355347</v>
       </c>
-      <c r="K223" s="2">
+      <c r="K223" s="8">
         <v>0.46041053533554077</v>
       </c>
       <c r="L223" s="1">
@@ -35490,10 +35497,10 @@
       <c r="AE223" t="s">
         <v>370</v>
       </c>
-      <c r="AF223" s="1">
+      <c r="AF223" s="2">
         <v>38.965857270000001</v>
       </c>
-      <c r="AG223" s="1">
+      <c r="AG223" s="2">
         <v>-77.019238599999895</v>
       </c>
       <c r="AH223" s="1">
@@ -35574,19 +35581,19 @@
       <c r="F224" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G224" s="2">
+      <c r="G224" s="8">
         <v>0.56999999284744263</v>
       </c>
-      <c r="H224" s="2">
+      <c r="H224" s="8">
         <v>0.65100002288818359</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
       </c>
-      <c r="J224" s="2">
+      <c r="J224" s="8">
         <v>0.30760622024536133</v>
       </c>
-      <c r="K224" s="2">
+      <c r="K224" s="8">
         <v>0.24185246229171753</v>
       </c>
       <c r="L224" s="1">
@@ -35649,10 +35656,10 @@
       <c r="AE224" t="s">
         <v>402</v>
       </c>
-      <c r="AF224" s="1">
+      <c r="AF224" s="2">
         <v>38.950156720000003</v>
       </c>
-      <c r="AG224" s="1">
+      <c r="AG224" s="2">
         <v>-77.077775700000004</v>
       </c>
       <c r="AH224" s="1">
@@ -35735,19 +35742,19 @@
       <c r="F225" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G225" s="2">
-        <v>0</v>
-      </c>
-      <c r="H225" s="2">
+      <c r="G225" s="8">
+        <v>0</v>
+      </c>
+      <c r="H225" s="8">
         <v>1.5999972820281982E-2</v>
       </c>
       <c r="I225" s="1">
         <v>0</v>
       </c>
-      <c r="J225" s="2">
+      <c r="J225" s="8">
         <v>0.21596246957778931</v>
       </c>
-      <c r="K225" s="2">
+      <c r="K225" s="8">
         <v>0.32018929719924927</v>
       </c>
       <c r="L225" s="1">
@@ -35806,10 +35813,10 @@
       <c r="AE225" t="s">
         <v>403</v>
       </c>
-      <c r="AF225" s="1">
+      <c r="AF225" s="2">
         <v>38.89678662</v>
       </c>
-      <c r="AG225" s="1">
+      <c r="AG225" s="2">
         <v>-76.92232826</v>
       </c>
       <c r="AH225" s="1">
